--- a/E1_starwars.xlsx
+++ b/E1_starwars.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EpicWork\workspace\excel\individual-projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EpicWork\workspace\excel\individual-projects\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C262C1EF-679C-4A73-8A49-3944454CCF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F0FA49-477A-4F9E-AF3B-CB40F0BA72CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="2205" windowWidth="19905" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="4365" windowWidth="19905" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="starwars" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Answers" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="BMI">starwars!$E$2:$E$88</definedName>
+    <definedName name="BMI">starwars!$G$2:$G$88</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="281">
   <si>
     <t>name</t>
   </si>
@@ -872,6 +872,15 @@
   </si>
   <si>
     <t>first_movie</t>
+  </si>
+  <si>
+    <t>age_number_check</t>
+  </si>
+  <si>
+    <t>height (in)</t>
+  </si>
+  <si>
+    <t>weight(lbs)</t>
   </si>
 </sst>
 </file>
@@ -1735,25 +1744,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F2" sqref="F2:F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="125.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="125.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1761,52 +1773,61 @@
         <v>264</v>
       </c>
       <c r="C1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" t="s">
         <v>268</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>265</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" t="s">
         <v>267</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>274</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>269</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O1" t="s">
         <v>275</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>276</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1814,59 +1835,71 @@
         <v>172</v>
       </c>
       <c r="C2">
+        <f>FLOOR(CONVERT(B2, "cm", "in"), 0.5)</f>
+        <v>67.5</v>
+      </c>
+      <c r="D2">
         <f>IFERROR(B2/100, "NA")</f>
         <v>1.72</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>77</v>
       </c>
-      <c r="E2" s="3">
-        <f>IF(IF(C2="NA", 1, IF(D2="NA", 1, 0)), 0, D2/(C2^2))</f>
+      <c r="F2">
+        <f>FLOOR(CONVERT(E2, "kg", "lbm"), 0.25)</f>
+        <v>169.75</v>
+      </c>
+      <c r="G2" s="3">
+        <f>IF(IF(D2="NA", 1, IF(E2="NA", 1, 0)), 0, E2/(D2^2))</f>
         <v>26.027582477014604</v>
       </c>
-      <c r="F2" s="5">
-        <f>RANK(E2, BMI)</f>
-        <v>18</v>
-      </c>
-      <c r="G2" s="3">
-        <f>IFERROR(E2-$E$5, "NA")</f>
+      <c r="H2" s="5">
+        <f t="shared" ref="H2:H33" si="0">RANK(G2, BMI)</f>
+        <v>18</v>
+      </c>
+      <c r="I2" s="3">
+        <f>IFERROR(G2-$G$5, "NA")</f>
         <v>-7.302483202820703</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>19</v>
       </c>
-      <c r="L2">
-        <f>IF(K2&lt;&gt;"NA", K2*365, "NA")</f>
+      <c r="N2" t="b">
+        <f>ISNUMBER(M2)</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>IF(M2&lt;&gt;"NA", M2*365, "NA")</f>
         <v>6935</v>
       </c>
-      <c r="M2" s="6">
-        <f ca="1">IF(L2="NA", "NA", TODAY()-L2)</f>
+      <c r="P2" s="6">
+        <f ca="1">IF(O2="NA", "NA", TODAY()-O2)</f>
         <v>39100</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="str">
-        <f t="shared" ref="Q2:Q8" si="0">TRIM(IFERROR(LEFT(P2,SEARCH(",", P2)-1), P2))</f>
+      <c r="T2" t="str">
+        <f t="shared" ref="T2:T8" si="1">TRIM(IFERROR(LEFT(S2,SEARCH(",", S2)-1), S2))</f>
         <v>Revenge of the Sith</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1874,59 +1907,71 @@
         <v>167</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="1">IFERROR(B3/100, "NA")</f>
+        <f t="shared" ref="C3:C66" si="2">FLOOR(CONVERT(B3, "cm", "in"), 0.5)</f>
+        <v>65.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="3">IFERROR(B3/100, "NA")</f>
         <v>1.67</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>75</v>
       </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E66" si="2">IF(IF(C3="NA", 1, IF(D3="NA", 1, 0)), 0, D3/(C3^2))</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="4">FLOOR(CONVERT(E3, "kg", "lbm"), 0.25)</f>
+        <v>165.25</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G66" si="5">IF(IF(D3="NA", 1, IF(E3="NA", 1, 0)), 0, E3/(D3^2))</f>
         <v>26.892323138154829</v>
       </c>
-      <c r="F3" s="5">
-        <f>RANK(E3, BMI)</f>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G66" si="3">IFERROR(E3-$E$5, "NA")</f>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I66" si="6">IFERROR(G3-$G$5, "NA")</f>
         <v>-6.4377425416804783</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>112</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L66" si="4">IF(K3&lt;&gt;"NA", K3*365, "NA")</f>
+      <c r="N3" t="b">
+        <f t="shared" ref="N3:N66" si="7">ISNUMBER(M3)</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="8">IF(M3&lt;&gt;"NA", M3*365, "NA")</f>
         <v>40880</v>
       </c>
-      <c r="M3" s="6">
-        <f t="shared" ref="M3:M66" ca="1" si="5">IF(L3="NA", "NA", TODAY()-L3)</f>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P66" ca="1" si="9">IF(O3="NA", "NA", TODAY()-O3)</f>
         <v>5155</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" t="str">
-        <f t="shared" si="0"/>
+      <c r="T3" t="str">
+        <f t="shared" si="1"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1934,59 +1979,71 @@
         <v>96</v>
       </c>
       <c r="C4">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="4"/>
+        <v>70.5</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="5"/>
+        <v>34.722222222222221</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="6"/>
+        <v>1.392156542386914</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>33</v>
+      </c>
+      <c r="N4" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="8"/>
+        <v>12045</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>33990</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="str">
         <f t="shared" si="1"/>
-        <v>0.96</v>
-      </c>
-      <c r="D4">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="2"/>
-        <v>34.722222222222221</v>
-      </c>
-      <c r="F4" s="5">
-        <f>RANK(E4, BMI)</f>
-        <v>6</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="3"/>
-        <v>1.392156542386914</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>33</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="4"/>
-        <v>12045</v>
-      </c>
-      <c r="M4" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>33990</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="0"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1994,59 +2051,71 @@
         <v>202</v>
       </c>
       <c r="C5">
+        <f t="shared" si="2"/>
+        <v>79.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>2.02</v>
+      </c>
+      <c r="E5">
+        <v>136</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>299.75</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="5"/>
+        <v>33.330065679835307</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>41.9</v>
+      </c>
+      <c r="N5" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="8"/>
+        <v>15293.5</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>30741.5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" t="str">
         <f t="shared" si="1"/>
-        <v>2.02</v>
-      </c>
-      <c r="D5">
-        <v>136</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="2"/>
-        <v>33.330065679835307</v>
-      </c>
-      <c r="F5" s="5">
-        <f>RANK(E5, BMI)</f>
-        <v>10</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>41.9</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="4"/>
-        <v>15293.5</v>
-      </c>
-      <c r="M5" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>30741.5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="0"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2054,59 +2123,71 @@
         <v>150</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>49</v>
       </c>
-      <c r="E6" s="3">
-        <f t="shared" si="2"/>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="5"/>
         <v>21.777777777777779</v>
       </c>
-      <c r="F6" s="5">
-        <f>RANK(E6, BMI)</f>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="G6" s="3">
-        <f t="shared" si="3"/>
+      <c r="I6" s="3">
+        <f t="shared" si="6"/>
         <v>-11.552287902057529</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6">
         <v>19</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="4"/>
+      <c r="N6" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="8"/>
         <v>6935</v>
       </c>
-      <c r="M6" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P6" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>39100</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>35</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
         <v>15</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="0"/>
+      <c r="T6" t="str">
+        <f t="shared" si="1"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2114,59 +2195,71 @@
         <v>178</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>1.78</v>
+      </c>
+      <c r="E7">
+        <v>120</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>264.5</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="5"/>
+        <v>37.874005807347558</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="6"/>
+        <v>4.5439401275122506</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>52</v>
+      </c>
+      <c r="N7" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="8"/>
+        <v>18980</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>27055</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" t="str">
         <f t="shared" si="1"/>
-        <v>1.78</v>
-      </c>
-      <c r="D7">
-        <v>120</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="2"/>
-        <v>37.874005807347558</v>
-      </c>
-      <c r="F7" s="5">
-        <f>RANK(E7, BMI)</f>
-        <v>4</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="3"/>
-        <v>4.5439401275122506</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7">
-        <v>52</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="4"/>
-        <v>18980</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>27055</v>
-      </c>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="0"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2174,59 +2267,71 @@
         <v>165</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>64.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>1.65</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>165.25</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="5"/>
+        <v>27.548209366391188</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="6"/>
+        <v>-5.7818563134441199</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <v>47</v>
+      </c>
+      <c r="N8" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
+        <v>17155</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>28880</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" t="str">
         <f t="shared" si="1"/>
-        <v>1.65</v>
-      </c>
-      <c r="D8">
-        <v>75</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="2"/>
-        <v>27.548209366391188</v>
-      </c>
-      <c r="F8" s="5">
-        <f>RANK(E8, BMI)</f>
-        <v>13</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="3"/>
-        <v>-5.7818563134441199</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8">
-        <v>47</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="4"/>
-        <v>17155</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>28880</v>
-      </c>
-      <c r="N8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="0"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2234,59 +2339,71 @@
         <v>97</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>32</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" si="2"/>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>70.5</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="5"/>
         <v>34.009990434690195</v>
       </c>
-      <c r="F9" s="5">
-        <f>RANK(E9, BMI)</f>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="3"/>
+      <c r="I9" s="3">
+        <f t="shared" si="6"/>
         <v>0.67992475485488768</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M9" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P9" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q9" t="s">
         <v>14</v>
       </c>
-      <c r="O9" t="s">
+      <c r="R9" t="s">
         <v>21</v>
       </c>
-      <c r="P9" t="s">
+      <c r="S9" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" t="str">
-        <f>TRIM(IFERROR(LEFT(P9,SEARCH(",", P9)-1), P9))</f>
+      <c r="T9" t="str">
+        <f>TRIM(IFERROR(LEFT(S9,SEARCH(",", S9)-1), S9))</f>
         <v>A New Hope</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -2294,59 +2411,71 @@
         <v>183</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
         <v>1.83</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>84</v>
       </c>
-      <c r="E10" s="3">
-        <f t="shared" si="2"/>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="5"/>
         <v>25.082863029651524</v>
       </c>
-      <c r="F10" s="5">
-        <f>RANK(E10, BMI)</f>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G10" s="3">
-        <f t="shared" si="3"/>
+      <c r="I10" s="3">
+        <f t="shared" si="6"/>
         <v>-8.2472026501837838</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>34</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="4">
+      <c r="M10" s="4">
         <v>24</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="4"/>
+      <c r="N10" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="8"/>
         <v>8760</v>
       </c>
-      <c r="M10" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P10" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>37275</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>14</v>
       </c>
-      <c r="O10" t="s">
+      <c r="R10" t="s">
         <v>15</v>
       </c>
-      <c r="P10" t="s">
+      <c r="S10" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" t="str">
-        <f t="shared" ref="Q10:Q73" si="6">TRIM(IFERROR(LEFT(P10,SEARCH(",", P10)-1), P10))</f>
+      <c r="T10" t="str">
+        <f t="shared" ref="T10:T73" si="10">TRIM(IFERROR(LEFT(S10,SEARCH(",", S10)-1), S10))</f>
         <v>A New Hope</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2354,59 +2483,71 @@
         <v>182</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>71.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
         <v>1.82</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>77</v>
       </c>
-      <c r="E11" s="3">
-        <f t="shared" si="2"/>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>169.75</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="5"/>
         <v>23.245984784446321</v>
       </c>
-      <c r="F11" s="5">
-        <f>RANK(E11, BMI)</f>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" si="3"/>
+      <c r="I11" s="3">
+        <f t="shared" si="6"/>
         <v>-10.084080895388986</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>47</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>12</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>48</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>57</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
+      <c r="N11" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="8"/>
         <v>20805</v>
       </c>
-      <c r="M11" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P11" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>25230</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" t="s">
         <v>49</v>
       </c>
-      <c r="O11" t="s">
+      <c r="R11" t="s">
         <v>15</v>
       </c>
-      <c r="P11" t="s">
+      <c r="S11" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="6"/>
+      <c r="T11" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2414,59 +2555,71 @@
         <v>188</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
         <v>1.88</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>84</v>
       </c>
-      <c r="E12" s="3">
-        <f t="shared" si="2"/>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="5"/>
         <v>23.766410140334994</v>
       </c>
-      <c r="F12" s="5">
-        <f>RANK(E12, BMI)</f>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G12" s="3">
-        <f t="shared" si="3"/>
+      <c r="I12" s="3">
+        <f t="shared" si="6"/>
         <v>-9.5636555395003136</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>13</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>41.9</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="4"/>
+      <c r="N12" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="8"/>
         <v>15293.5</v>
       </c>
-      <c r="M12" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P12" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>30741.5</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
         <v>14</v>
       </c>
-      <c r="O12" t="s">
+      <c r="R12" t="s">
         <v>15</v>
       </c>
-      <c r="P12" t="s">
+      <c r="S12" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="6"/>
+      <c r="T12" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2474,59 +2627,71 @@
         <v>180</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>70.5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="2"/>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F13" s="5">
-        <f>RANK(E13, BMI)</f>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G13" s="3">
-        <f t="shared" si="3"/>
+      <c r="I13" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>53</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>13</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>64</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="4"/>
+      <c r="N13" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="8"/>
         <v>23360</v>
       </c>
-      <c r="M13" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P13" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>22675</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>54</v>
       </c>
-      <c r="O13" t="s">
+      <c r="R13" t="s">
         <v>15</v>
       </c>
-      <c r="P13" t="s">
+      <c r="S13" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="6"/>
+      <c r="T13" t="str">
+        <f t="shared" si="10"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -2534,59 +2699,71 @@
         <v>228</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>89.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
         <v>2.2799999999999998</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>112</v>
       </c>
-      <c r="E14" s="3">
-        <f t="shared" si="2"/>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>246.75</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="5"/>
         <v>21.545090797168363</v>
       </c>
-      <c r="F14" s="5">
-        <f>RANK(E14, BMI)</f>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" si="3"/>
+      <c r="I14" s="3">
+        <f t="shared" si="6"/>
         <v>-11.784974882666944</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>33</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>57</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>13</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>200</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="4"/>
+      <c r="N14" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="8"/>
         <v>73000</v>
       </c>
-      <c r="M14" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P14" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>-26965</v>
       </c>
-      <c r="N14" t="s">
+      <c r="Q14" t="s">
         <v>58</v>
       </c>
-      <c r="O14" t="s">
+      <c r="R14" t="s">
         <v>59</v>
       </c>
-      <c r="P14" t="s">
+      <c r="S14" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="6"/>
+      <c r="T14" t="str">
+        <f t="shared" si="10"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2594,59 +2771,71 @@
         <v>180</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>70.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>80</v>
       </c>
-      <c r="E15" s="3">
-        <f t="shared" si="2"/>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>176.25</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="5"/>
         <v>24.691358024691358</v>
       </c>
-      <c r="F15" s="5">
-        <f>RANK(E15, BMI)</f>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G15" s="3">
-        <f t="shared" si="3"/>
+      <c r="I15" s="3">
+        <f t="shared" si="6"/>
         <v>-8.6387076551439499</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
       </c>
       <c r="J15" t="s">
         <v>33</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15">
         <v>29</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="4"/>
+      <c r="N15" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
         <v>10585</v>
       </c>
-      <c r="M15" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P15" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>35450</v>
       </c>
-      <c r="N15" t="s">
+      <c r="Q15" t="s">
         <v>61</v>
       </c>
-      <c r="O15" t="s">
+      <c r="R15" t="s">
         <v>15</v>
       </c>
-      <c r="P15" t="s">
+      <c r="S15" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="6"/>
+      <c r="T15" t="str">
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2654,59 +2843,71 @@
         <v>173</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
         <v>1.73</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>74</v>
       </c>
-      <c r="E16" s="3">
-        <f t="shared" si="2"/>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="5"/>
         <v>24.725182932941294</v>
       </c>
-      <c r="F16" s="5">
-        <f>RANK(E16, BMI)</f>
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G16" s="3">
-        <f t="shared" si="3"/>
+      <c r="I16" s="3">
+        <f t="shared" si="6"/>
         <v>-8.6048827468940132</v>
       </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
         <v>64</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>45</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>44</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="4"/>
+      <c r="N16" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="8"/>
         <v>16060</v>
       </c>
-      <c r="M16" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P16" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>29975</v>
       </c>
-      <c r="N16" t="s">
+      <c r="Q16" t="s">
         <v>65</v>
       </c>
-      <c r="O16" t="s">
+      <c r="R16" t="s">
         <v>66</v>
       </c>
-      <c r="P16" t="s">
+      <c r="S16" t="s">
         <v>43</v>
       </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="6"/>
+      <c r="T16" t="str">
+        <f t="shared" si="10"/>
         <v>A New Hope</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2714,59 +2915,71 @@
         <v>175</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1358</v>
       </c>
-      <c r="E17" s="3">
-        <f t="shared" si="2"/>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>2993.75</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="5"/>
         <v>443.42857142857144</v>
       </c>
-      <c r="F17" s="5">
-        <f>RANK(E17, BMI)</f>
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G17" s="3">
-        <f t="shared" si="3"/>
+      <c r="I17" s="3">
+        <f t="shared" si="6"/>
         <v>410.09850574873616</v>
       </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
         <v>68</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>69</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>600</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="4"/>
+      <c r="N17" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="8"/>
         <v>219000</v>
       </c>
-      <c r="M17" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P17" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>-172965</v>
       </c>
-      <c r="N17" t="s">
+      <c r="Q17" t="s">
         <v>70</v>
       </c>
-      <c r="O17" t="s">
+      <c r="R17" t="s">
         <v>71</v>
       </c>
-      <c r="P17" t="s">
+      <c r="S17" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="6"/>
+      <c r="T17" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -2774,59 +2987,71 @@
         <v>170</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>77</v>
       </c>
-      <c r="E18" s="3">
-        <f t="shared" si="2"/>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>169.75</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="5"/>
         <v>26.643598615916957</v>
       </c>
-      <c r="F18" s="5">
-        <f>RANK(E18, BMI)</f>
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G18" s="3">
-        <f t="shared" si="3"/>
+      <c r="I18" s="3">
+        <f t="shared" si="6"/>
         <v>-6.6864670639183501</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>12</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>74</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>21</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="4"/>
+      <c r="N18" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="8"/>
         <v>7665</v>
       </c>
-      <c r="M18" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P18" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>38370</v>
       </c>
-      <c r="N18" t="s">
+      <c r="Q18" t="s">
         <v>61</v>
       </c>
-      <c r="O18" t="s">
+      <c r="R18" t="s">
         <v>15</v>
       </c>
-      <c r="P18" t="s">
+      <c r="S18" t="s">
         <v>75</v>
       </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="6"/>
+      <c r="T18" t="str">
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2834,59 +3059,71 @@
         <v>180</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>70.5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>110</v>
       </c>
-      <c r="E19" s="3">
-        <f t="shared" si="2"/>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>242.5</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="5"/>
         <v>33.950617283950614</v>
       </c>
-      <c r="F19" s="5">
-        <f>RANK(E19, BMI)</f>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" si="3"/>
+      <c r="I19" s="3">
+        <f t="shared" si="6"/>
         <v>0.62055160411530608</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>33</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>12</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M19" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P19" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q19" t="s">
         <v>77</v>
       </c>
-      <c r="O19" t="s">
+      <c r="R19" t="s">
         <v>15</v>
       </c>
-      <c r="P19" t="s">
+      <c r="S19" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="6"/>
+      <c r="T19" t="str">
+        <f t="shared" si="10"/>
         <v>A New Hope</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2894,59 +3131,71 @@
         <v>66</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
         <v>0.66</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>17</v>
       </c>
-      <c r="E20" s="3">
-        <f t="shared" si="2"/>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>37.25</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="5"/>
         <v>39.026629935720841</v>
       </c>
-      <c r="F20" s="5">
-        <f>RANK(E20, BMI)</f>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" si="3"/>
+      <c r="I20" s="3">
+        <f t="shared" si="6"/>
         <v>5.6965642558855336</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>64</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>33</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>896</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="4"/>
+      <c r="N20" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="8"/>
         <v>327040</v>
       </c>
-      <c r="M20" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P20" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>-281005</v>
       </c>
-      <c r="N20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" t="s">
         <v>79</v>
       </c>
-      <c r="P20" t="s">
+      <c r="S20" t="s">
         <v>80</v>
       </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="6"/>
+      <c r="T20" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2954,59 +3203,71 @@
         <v>170</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>75</v>
       </c>
-      <c r="E21" s="3">
-        <f t="shared" si="2"/>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>165.25</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="5"/>
         <v>25.95155709342561</v>
       </c>
-      <c r="F21" s="5">
-        <f>RANK(E21, BMI)</f>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G21" s="3">
-        <f t="shared" si="3"/>
+      <c r="I21" s="3">
+        <f t="shared" si="6"/>
         <v>-7.3785085864096978</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>82</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>83</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>20</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>82</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="4"/>
+      <c r="N21" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="8"/>
         <v>29930</v>
       </c>
-      <c r="M21" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P21" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>16105</v>
       </c>
-      <c r="N21" t="s">
+      <c r="Q21" t="s">
         <v>26</v>
       </c>
-      <c r="O21" t="s">
+      <c r="R21" t="s">
         <v>15</v>
       </c>
-      <c r="P21" t="s">
+      <c r="S21" t="s">
         <v>84</v>
       </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="6"/>
+      <c r="T21" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -3014,59 +3275,71 @@
         <v>183</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
         <v>1.83</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>78.2</v>
       </c>
-      <c r="E22" s="3">
-        <f t="shared" si="2"/>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>172.25</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="5"/>
         <v>23.350951058556539</v>
       </c>
-      <c r="F22" s="5">
-        <f>RANK(E22, BMI)</f>
+      <c r="H22" s="5">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="G22" s="3">
-        <f t="shared" si="3"/>
+      <c r="I22" s="3">
+        <f t="shared" si="6"/>
         <v>-9.979114621278768</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>45</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>12</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>33</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>31.5</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="4"/>
+      <c r="N22" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="8"/>
         <v>11497.5</v>
       </c>
-      <c r="M22" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P22" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>34537.5</v>
       </c>
-      <c r="N22" t="s">
+      <c r="Q22" t="s">
         <v>86</v>
       </c>
-      <c r="O22" t="s">
+      <c r="R22" t="s">
         <v>15</v>
       </c>
-      <c r="P22" t="s">
+      <c r="S22" t="s">
         <v>87</v>
       </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="6"/>
+      <c r="T22" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -3074,59 +3347,71 @@
         <v>200</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>78.5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>140</v>
       </c>
-      <c r="E23" s="3">
-        <f t="shared" si="2"/>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>308.5</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="F23" s="5">
-        <f>RANK(E23, BMI)</f>
+      <c r="H23" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" si="3"/>
+      <c r="I23" s="3">
+        <f t="shared" si="6"/>
         <v>1.6699343201646926</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>29</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>89</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>25</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>15</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="4"/>
+      <c r="N23" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="8"/>
         <v>5475</v>
       </c>
-      <c r="M23" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P23" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>40560</v>
       </c>
-      <c r="N23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" t="s">
         <v>21</v>
       </c>
-      <c r="P23" t="s">
+      <c r="S23" t="s">
         <v>90</v>
       </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="6"/>
+      <c r="T23" t="str">
+        <f t="shared" si="10"/>
         <v>The Empire Strikes Back</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -3134,59 +3419,71 @@
         <v>190</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>74.5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>113</v>
       </c>
-      <c r="E24" s="3">
-        <f t="shared" si="2"/>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>249</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="5"/>
         <v>31.301939058171747</v>
       </c>
-      <c r="F24" s="5">
-        <f>RANK(E24, BMI)</f>
+      <c r="H24" s="5">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G24" s="3">
-        <f t="shared" si="3"/>
+      <c r="I24" s="3">
+        <f t="shared" si="6"/>
         <v>-2.0281266216635601</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>29</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>64</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>25</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>53</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="4"/>
+      <c r="N24" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="8"/>
         <v>19345</v>
       </c>
-      <c r="M24" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P24" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>26690</v>
       </c>
-      <c r="N24" t="s">
+      <c r="Q24" t="s">
         <v>92</v>
       </c>
-      <c r="O24" t="s">
+      <c r="R24" t="s">
         <v>93</v>
       </c>
-      <c r="P24" t="s">
+      <c r="S24" t="s">
         <v>90</v>
       </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="6"/>
+      <c r="T24" t="str">
+        <f t="shared" si="10"/>
         <v>The Empire Strikes Back</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -3194,59 +3491,71 @@
         <v>177</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
         <v>1.77</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>79</v>
       </c>
-      <c r="E25" s="3">
-        <f t="shared" si="2"/>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="5"/>
         <v>25.216253311628201</v>
       </c>
-      <c r="F25" s="5">
-        <f>RANK(E25, BMI)</f>
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G25" s="3">
-        <f t="shared" si="3"/>
+      <c r="I25" s="3">
+        <f t="shared" si="6"/>
         <v>-8.1138123682071068</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>45</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>95</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>33</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>31</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="4"/>
+      <c r="N25" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="8"/>
         <v>11315</v>
       </c>
-      <c r="M25" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P25" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>34720</v>
       </c>
-      <c r="N25" t="s">
+      <c r="Q25" t="s">
         <v>96</v>
       </c>
-      <c r="O25" t="s">
+      <c r="R25" t="s">
         <v>15</v>
       </c>
-      <c r="P25" t="s">
+      <c r="S25" t="s">
         <v>97</v>
       </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="6"/>
+      <c r="T25" t="str">
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -3254,59 +3563,71 @@
         <v>175</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>79</v>
       </c>
-      <c r="E26" s="3">
-        <f t="shared" si="2"/>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="5"/>
         <v>25.795918367346939</v>
       </c>
-      <c r="F26" s="5">
-        <f>RANK(E26, BMI)</f>
+      <c r="H26" s="5">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G26" s="3">
-        <f t="shared" si="3"/>
+      <c r="I26" s="3">
+        <f t="shared" si="6"/>
         <v>-7.5341473124883684</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>29</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>34</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>13</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>37</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="4"/>
+      <c r="N26" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="8"/>
         <v>13505</v>
       </c>
-      <c r="M26" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P26" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>32530</v>
       </c>
-      <c r="N26" t="s">
+      <c r="Q26" t="s">
         <v>99</v>
       </c>
-      <c r="O26" t="s">
+      <c r="R26" t="s">
         <v>15</v>
       </c>
-      <c r="P26" t="s">
+      <c r="S26" t="s">
         <v>90</v>
       </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="6"/>
+      <c r="T26" t="str">
+        <f t="shared" si="10"/>
         <v>The Empire Strikes Back</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -3314,59 +3635,71 @@
         <v>180</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>70.5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>83</v>
       </c>
-      <c r="E27" s="3">
-        <f t="shared" si="2"/>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>182.75</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="5"/>
         <v>25.617283950617281</v>
       </c>
-      <c r="F27" s="5">
-        <f>RANK(E27, BMI)</f>
+      <c r="H27" s="5">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G27" s="3">
-        <f t="shared" si="3"/>
+      <c r="I27" s="3">
+        <f t="shared" si="6"/>
         <v>-7.7127817292180261</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>29</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>101</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>69</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>41</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="4"/>
+      <c r="N27" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="8"/>
         <v>14965</v>
       </c>
-      <c r="M27" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P27" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>31070</v>
       </c>
-      <c r="N27" t="s">
+      <c r="Q27" t="s">
         <v>102</v>
       </c>
-      <c r="O27" t="s">
+      <c r="R27" t="s">
         <v>103</v>
       </c>
-      <c r="P27" t="s">
+      <c r="S27" t="s">
         <v>104</v>
       </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="6"/>
+      <c r="T27" t="str">
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -3374,119 +3707,143 @@
         <v>150</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="2"/>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="5">
-        <f>RANK(E28, BMI)</f>
+      <c r="H28" s="5">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G28" s="3">
-        <f t="shared" si="3"/>
+      <c r="I28" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>106</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>12</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>13</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>48</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="4"/>
+      <c r="N28" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="8"/>
         <v>17520</v>
       </c>
-      <c r="M28" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P28" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>28515</v>
       </c>
-      <c r="N28" t="s">
+      <c r="Q28" t="s">
         <v>107</v>
       </c>
-      <c r="O28" t="s">
+      <c r="R28" t="s">
         <v>15</v>
       </c>
-      <c r="P28" t="s">
+      <c r="S28" t="s">
         <v>108</v>
       </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="6"/>
+      <c r="T28" t="str">
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>109</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="C29" t="e">
         <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F29" s="5">
-        <f>RANK(E29, BMI)</f>
+      <c r="H29" s="5">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G29" s="3">
-        <f t="shared" si="3"/>
+      <c r="I29" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
-      </c>
-      <c r="H29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" t="s">
-        <v>12</v>
       </c>
       <c r="J29" t="s">
         <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M29" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P29" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" t="s">
         <v>15</v>
       </c>
-      <c r="P29" t="s">
+      <c r="S29" t="s">
         <v>108</v>
       </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="6"/>
+      <c r="T29" t="str">
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -3494,59 +3851,71 @@
         <v>88</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>34.5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
         <v>0.88</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>20</v>
       </c>
-      <c r="E30" s="3">
-        <f t="shared" si="2"/>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="5"/>
         <v>25.826446280991735</v>
       </c>
-      <c r="F30" s="5">
-        <f>RANK(E30, BMI)</f>
+      <c r="H30" s="5">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G30" s="3">
-        <f t="shared" si="3"/>
+      <c r="I30" s="3">
+        <f t="shared" si="6"/>
         <v>-7.503619398843572</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" t="s">
-        <v>33</v>
       </c>
       <c r="J30" t="s">
         <v>33</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30">
         <v>8</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="4"/>
+      <c r="N30" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
         <v>2920</v>
       </c>
-      <c r="M30" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P30" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>43115</v>
       </c>
-      <c r="N30" t="s">
+      <c r="Q30" t="s">
         <v>111</v>
       </c>
-      <c r="O30" t="s">
+      <c r="R30" t="s">
         <v>112</v>
       </c>
-      <c r="P30" t="s">
+      <c r="S30" t="s">
         <v>108</v>
       </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="6"/>
+      <c r="T30" t="str">
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -3554,59 +3923,71 @@
         <v>160</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>68</v>
       </c>
-      <c r="E31" s="3">
-        <f t="shared" si="2"/>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>149.75</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="5"/>
         <v>26.562499999999996</v>
       </c>
-      <c r="F31" s="5">
-        <f>RANK(E31, BMI)</f>
+      <c r="H31" s="5">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G31" s="3">
-        <f t="shared" si="3"/>
+      <c r="I31" s="3">
+        <f t="shared" si="6"/>
         <v>-6.767565679835311</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>29</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>82</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>45</v>
       </c>
-      <c r="K31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M31" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P31" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q31" t="s">
         <v>114</v>
       </c>
-      <c r="O31" t="s">
+      <c r="R31" t="s">
         <v>115</v>
       </c>
-      <c r="P31" t="s">
+      <c r="S31" t="s">
         <v>108</v>
       </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="6"/>
+      <c r="T31" t="str">
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -3614,59 +3995,71 @@
         <v>193</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>75.5</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
         <v>1.93</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>89</v>
       </c>
-      <c r="E32" s="3">
-        <f t="shared" si="2"/>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="5"/>
         <v>23.893258879433006</v>
       </c>
-      <c r="F32" s="5">
-        <f>RANK(E32, BMI)</f>
+      <c r="H32" s="5">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G32" s="3">
-        <f t="shared" si="3"/>
+      <c r="I32" s="3">
+        <f t="shared" si="6"/>
         <v>-9.4368068004023016</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>33</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>12</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>13</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>92</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="4"/>
+      <c r="N32" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="8"/>
         <v>33580</v>
       </c>
-      <c r="M32" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P32" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>12455</v>
       </c>
-      <c r="N32" t="s">
-        <v>18</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R32" t="s">
         <v>15</v>
       </c>
-      <c r="P32" t="s">
+      <c r="S32" t="s">
         <v>117</v>
       </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="6"/>
+      <c r="T32" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -3674,59 +4067,71 @@
         <v>191</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
         <v>1.91</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>90</v>
       </c>
-      <c r="E33" s="3">
-        <f t="shared" si="2"/>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>198.25</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="5"/>
         <v>24.670376360297141</v>
       </c>
-      <c r="F33" s="5">
-        <f>RANK(E33, BMI)</f>
+      <c r="H33" s="5">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G33" s="3">
-        <f t="shared" si="3"/>
+      <c r="I33" s="3">
+        <f t="shared" si="6"/>
         <v>-8.6596893195381668</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>29</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>119</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>25</v>
       </c>
-      <c r="K33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M33" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P33" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q33" t="s">
         <v>120</v>
       </c>
-      <c r="O33" t="s">
+      <c r="R33" t="s">
         <v>121</v>
       </c>
-      <c r="P33" t="s">
+      <c r="S33" t="s">
         <v>51</v>
       </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="6"/>
+      <c r="T33" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -3734,59 +4139,71 @@
         <v>170</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="2"/>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F34" s="5">
-        <f>RANK(E34, BMI)</f>
+      <c r="H34" s="5">
+        <f t="shared" ref="H34:H65" si="11">RANK(G34, BMI)</f>
         <v>60</v>
       </c>
-      <c r="G34" s="3">
-        <f t="shared" si="3"/>
+      <c r="I34" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34" t="s">
         <v>11</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>12</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>13</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>91</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="4"/>
+      <c r="N34" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="8"/>
         <v>33215</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P34" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>12820</v>
       </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
         <v>123</v>
       </c>
-      <c r="O34" t="s">
+      <c r="R34" t="s">
         <v>15</v>
       </c>
-      <c r="P34" t="s">
+      <c r="S34" t="s">
         <v>117</v>
       </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="6"/>
+      <c r="T34" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -3794,59 +4211,71 @@
         <v>196</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>66</v>
       </c>
-      <c r="E35" s="3">
-        <f t="shared" si="2"/>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>145.5</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="5"/>
         <v>17.180341524364849</v>
       </c>
-      <c r="F35" s="5">
-        <f>RANK(E35, BMI)</f>
+      <c r="H35" s="5">
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
-      <c r="G35" s="3">
-        <f t="shared" si="3"/>
+      <c r="I35" s="3">
+        <f t="shared" si="6"/>
         <v>-16.149724155470459</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>29</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>69</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>69</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>52</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="4"/>
+      <c r="N35" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="8"/>
         <v>18980</v>
       </c>
-      <c r="M35" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P35" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>27055</v>
       </c>
-      <c r="N35" t="s">
+      <c r="Q35" t="s">
         <v>26</v>
       </c>
-      <c r="O35" t="s">
+      <c r="R35" t="s">
         <v>125</v>
       </c>
-      <c r="P35" t="s">
+      <c r="S35" t="s">
         <v>126</v>
       </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="6"/>
+      <c r="T35" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -3854,59 +4283,71 @@
         <v>224</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
         <v>2.2400000000000002</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>82</v>
       </c>
-      <c r="E36" s="3">
-        <f t="shared" si="2"/>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>180.75</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="5"/>
         <v>16.342474489795915</v>
       </c>
-      <c r="F36" s="5">
-        <f>RANK(E36, BMI)</f>
+      <c r="H36" s="5">
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
-      <c r="G36" s="3">
-        <f t="shared" si="3"/>
+      <c r="I36" s="3">
+        <f t="shared" si="6"/>
         <v>-16.987591190039392</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>29</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>82</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>69</v>
       </c>
-      <c r="K36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M36" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="M36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P36" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q36" t="s">
         <v>26</v>
       </c>
-      <c r="O36" t="s">
+      <c r="R36" t="s">
         <v>125</v>
       </c>
-      <c r="P36" t="s">
+      <c r="S36" t="s">
         <v>117</v>
       </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="6"/>
+      <c r="T36" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -3914,59 +4355,71 @@
         <v>206</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
         <v>2.06</v>
       </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="2"/>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F37" s="5">
-        <f>RANK(E37, BMI)</f>
+      <c r="H37" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G37" s="3">
-        <f t="shared" si="3"/>
+      <c r="I37" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>29</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>64</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>69</v>
       </c>
-      <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M37" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P37" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q37" t="s">
         <v>26</v>
       </c>
-      <c r="O37" t="s">
+      <c r="R37" t="s">
         <v>125</v>
       </c>
-      <c r="P37" t="s">
+      <c r="S37" t="s">
         <v>117</v>
       </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="6"/>
+      <c r="T37" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -3974,59 +4427,71 @@
         <v>183</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
         <v>1.83</v>
       </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="3">
-        <f t="shared" si="2"/>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F38" s="5">
-        <f>RANK(E38, BMI)</f>
+      <c r="H38" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G38" s="3">
-        <f t="shared" si="3"/>
+      <c r="I38" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>33</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>12</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>13</v>
       </c>
-      <c r="K38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M38" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="M38" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P38" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q38" t="s">
         <v>26</v>
       </c>
-      <c r="O38" t="s">
-        <v>18</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="R38" t="s">
+        <v>18</v>
+      </c>
+      <c r="S38" t="s">
         <v>117</v>
       </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="6"/>
+      <c r="T38" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -4034,59 +4499,71 @@
         <v>137</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>53.5</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
         <v>1.37</v>
       </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="3">
-        <f t="shared" si="2"/>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F39" s="5">
-        <f>RANK(E39, BMI)</f>
+      <c r="H39" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G39" s="3">
-        <f t="shared" si="3"/>
+      <c r="I39" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>45</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>131</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>20</v>
       </c>
-      <c r="K39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M39" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="M39" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P39" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q39" t="s">
         <v>132</v>
       </c>
-      <c r="O39" t="s">
+      <c r="R39" t="s">
         <v>133</v>
       </c>
-      <c r="P39" t="s">
+      <c r="S39" t="s">
         <v>134</v>
       </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="6"/>
+      <c r="T39" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>135</v>
       </c>
@@ -4094,59 +4571,71 @@
         <v>112</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>40</v>
       </c>
-      <c r="E40" s="3">
-        <f t="shared" si="2"/>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="5"/>
         <v>31.887755102040813</v>
       </c>
-      <c r="F40" s="5">
-        <f>RANK(E40, BMI)</f>
+      <c r="H40" s="5">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="G40" s="3">
-        <f t="shared" si="3"/>
+      <c r="I40" s="3">
+        <f t="shared" si="6"/>
         <v>-1.442310577794494</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
         <v>29</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>136</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>69</v>
       </c>
-      <c r="K40" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M40" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="M40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P40" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q40" t="s">
         <v>137</v>
       </c>
-      <c r="O40" t="s">
+      <c r="R40" t="s">
         <v>138</v>
       </c>
-      <c r="P40" t="s">
+      <c r="S40" t="s">
         <v>117</v>
       </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="6"/>
+      <c r="T40" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -4154,59 +4643,71 @@
         <v>183</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
         <v>1.83</v>
       </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="2"/>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F41" s="5">
-        <f>RANK(E41, BMI)</f>
+      <c r="H41" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G41" s="3">
-        <f t="shared" si="3"/>
+      <c r="I41" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>45</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>95</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>33</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>62</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="4"/>
+      <c r="N41" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="8"/>
         <v>22630</v>
       </c>
-      <c r="M41" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P41" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>23405</v>
       </c>
-      <c r="N41" t="s">
+      <c r="Q41" t="s">
         <v>26</v>
       </c>
-      <c r="O41" t="s">
-        <v>18</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="R41" t="s">
+        <v>18</v>
+      </c>
+      <c r="S41" t="s">
         <v>117</v>
       </c>
-      <c r="Q41" t="str">
-        <f t="shared" si="6"/>
+      <c r="T41" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -4214,59 +4715,71 @@
         <v>163</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
         <v>1.63</v>
       </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="2"/>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F42" s="5">
-        <f>RANK(E42, BMI)</f>
+      <c r="H42" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G42" s="3">
-        <f t="shared" si="3"/>
+      <c r="I42" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
         <v>45</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>12</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>33</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>72</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="4"/>
+      <c r="N42" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="8"/>
         <v>26280</v>
       </c>
-      <c r="M42" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P42" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>19755</v>
       </c>
-      <c r="N42" t="s">
+      <c r="Q42" t="s">
         <v>14</v>
       </c>
-      <c r="O42" t="s">
+      <c r="R42" t="s">
         <v>15</v>
       </c>
-      <c r="P42" t="s">
+      <c r="S42" t="s">
         <v>134</v>
       </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="6"/>
+      <c r="T42" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -4274,59 +4787,71 @@
         <v>175</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>80</v>
       </c>
-      <c r="E43" s="3">
-        <f t="shared" si="2"/>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>176.25</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="5"/>
         <v>26.122448979591837</v>
       </c>
-      <c r="F43" s="5">
-        <f>RANK(E43, BMI)</f>
+      <c r="H43" s="5">
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="G43" s="3">
-        <f t="shared" si="3"/>
+      <c r="I43" s="3">
+        <f t="shared" si="6"/>
         <v>-7.2076167002434701</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
         <v>29</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>25</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>20</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>54</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="4"/>
+      <c r="N43" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="8"/>
         <v>19710</v>
       </c>
-      <c r="M43" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P43" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>26325</v>
       </c>
-      <c r="N43" t="s">
+      <c r="Q43" t="s">
         <v>142</v>
       </c>
-      <c r="O43" t="s">
+      <c r="R43" t="s">
         <v>143</v>
       </c>
-      <c r="P43" t="s">
+      <c r="S43" t="s">
         <v>117</v>
       </c>
-      <c r="Q43" t="str">
-        <f t="shared" si="6"/>
+      <c r="T43" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -4334,59 +4859,71 @@
         <v>180</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>70.5</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="2"/>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F44" s="5">
-        <f>RANK(E44, BMI)</f>
+      <c r="H44" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G44" s="3">
-        <f t="shared" si="3"/>
+      <c r="I44" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
         <v>29</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>83</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>145</v>
       </c>
-      <c r="K44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M44" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="M44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P44" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q44" t="s">
         <v>146</v>
       </c>
-      <c r="O44" t="s">
+      <c r="R44" t="s">
         <v>147</v>
       </c>
-      <c r="P44" t="s">
+      <c r="S44" t="s">
         <v>108</v>
       </c>
-      <c r="Q44" t="str">
-        <f t="shared" si="6"/>
+      <c r="T44" t="str">
+        <f t="shared" si="10"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -4394,59 +4931,71 @@
         <v>178</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
         <v>1.78</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>55</v>
       </c>
-      <c r="E45" s="3">
-        <f t="shared" si="2"/>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>121.25</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="5"/>
         <v>17.35891932836763</v>
       </c>
-      <c r="F45" s="5">
-        <f>RANK(E45, BMI)</f>
+      <c r="H45" s="5">
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
-      <c r="G45" s="3">
-        <f t="shared" si="3"/>
+      <c r="I45" s="3">
+        <f t="shared" si="6"/>
         <v>-15.971146351467677</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>29</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>13</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>74</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>48</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="4"/>
+      <c r="N45" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="8"/>
         <v>17520</v>
       </c>
-      <c r="M45" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P45" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>28515</v>
       </c>
-      <c r="N45" t="s">
+      <c r="Q45" t="s">
         <v>146</v>
       </c>
-      <c r="O45" t="s">
+      <c r="R45" t="s">
         <v>147</v>
       </c>
-      <c r="P45" t="s">
+      <c r="S45" t="s">
         <v>149</v>
       </c>
-      <c r="Q45" t="str">
-        <f t="shared" si="6"/>
+      <c r="T45" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>150</v>
       </c>
@@ -4454,59 +5003,71 @@
         <v>94</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
         <v>0.94</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>45</v>
       </c>
-      <c r="E46" s="3">
-        <f t="shared" si="2"/>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="5"/>
         <v>50.928021729289277</v>
       </c>
-      <c r="F46" s="5">
-        <f>RANK(E46, BMI)</f>
+      <c r="H46" s="5">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="G46" s="3">
-        <f t="shared" si="3"/>
+      <c r="I46" s="3">
+        <f t="shared" si="6"/>
         <v>17.59795604945397</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>29</v>
       </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>131</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>20</v>
       </c>
-      <c r="K46" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M46" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="M46" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P46" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q46" t="s">
         <v>151</v>
       </c>
-      <c r="O46" t="s">
+      <c r="R46" t="s">
         <v>152</v>
       </c>
-      <c r="P46" t="s">
+      <c r="S46" t="s">
         <v>117</v>
       </c>
-      <c r="Q46" t="str">
-        <f t="shared" si="6"/>
+      <c r="T46" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -4514,59 +5075,71 @@
         <v>122</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="3"/>
         <v>1.22</v>
       </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="2"/>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F47" s="5">
-        <f>RANK(E47, BMI)</f>
+      <c r="H47" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G47" s="3">
-        <f t="shared" si="3"/>
+      <c r="I47" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H47" t="s">
+      <c r="J47" t="s">
         <v>29</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
         <v>24</v>
       </c>
-      <c r="J47" t="s">
+      <c r="L47" t="s">
         <v>45</v>
       </c>
-      <c r="K47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M47" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="M47" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P47" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q47" t="s">
         <v>154</v>
       </c>
-      <c r="O47" t="s">
+      <c r="R47" t="s">
         <v>155</v>
       </c>
-      <c r="P47" t="s">
+      <c r="S47" t="s">
         <v>117</v>
       </c>
-      <c r="Q47" t="str">
-        <f t="shared" si="6"/>
+      <c r="T47" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>156</v>
       </c>
@@ -4574,59 +5147,71 @@
         <v>163</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
         <v>1.63</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>65</v>
       </c>
-      <c r="E48" s="3">
-        <f t="shared" si="2"/>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>143.25</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="5"/>
         <v>24.464601603372351</v>
       </c>
-      <c r="F48" s="5">
-        <f>RANK(E48, BMI)</f>
+      <c r="H48" s="5">
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="G48" s="3">
-        <f t="shared" si="3"/>
+      <c r="I48" s="3">
+        <f t="shared" si="6"/>
         <v>-8.8654640764629562</v>
       </c>
-      <c r="H48" t="s">
+      <c r="J48" t="s">
         <v>29</v>
       </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>157</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>69</v>
       </c>
-      <c r="K48" t="s">
-        <v>18</v>
-      </c>
-      <c r="L48" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M48" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="M48" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P48" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q48" t="s">
         <v>158</v>
       </c>
-      <c r="O48" t="s">
+      <c r="R48" t="s">
         <v>159</v>
       </c>
-      <c r="P48" t="s">
+      <c r="S48" t="s">
         <v>117</v>
       </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="6"/>
+      <c r="T48" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -4634,59 +5219,71 @@
         <v>188</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="3"/>
         <v>1.88</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>84</v>
       </c>
-      <c r="E49" s="3">
-        <f t="shared" si="2"/>
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="5"/>
         <v>23.766410140334994</v>
       </c>
-      <c r="F49" s="5">
-        <f>RANK(E49, BMI)</f>
+      <c r="H49" s="5">
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="G49" s="3">
-        <f t="shared" si="3"/>
+      <c r="I49" s="3">
+        <f t="shared" si="6"/>
         <v>-9.5636555395003136</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>29</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>95</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>33</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>72</v>
       </c>
-      <c r="L49">
-        <f t="shared" si="4"/>
+      <c r="N49" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="8"/>
         <v>26280</v>
       </c>
-      <c r="M49" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P49" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>19755</v>
       </c>
-      <c r="N49" t="s">
+      <c r="Q49" t="s">
         <v>161</v>
       </c>
-      <c r="O49" t="s">
+      <c r="R49" t="s">
         <v>15</v>
       </c>
-      <c r="P49" t="s">
+      <c r="S49" t="s">
         <v>51</v>
       </c>
-      <c r="Q49" t="str">
-        <f t="shared" si="6"/>
+      <c r="T49" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>162</v>
       </c>
@@ -4694,59 +5291,71 @@
         <v>198</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="3"/>
         <v>1.98</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>82</v>
       </c>
-      <c r="E50" s="3">
-        <f t="shared" si="2"/>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>180.75</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="5"/>
         <v>20.91623303744516</v>
       </c>
-      <c r="F50" s="5">
-        <f>RANK(E50, BMI)</f>
+      <c r="H50" s="5">
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
-      <c r="G50" s="3">
-        <f t="shared" si="3"/>
+      <c r="I50" s="3">
+        <f t="shared" si="6"/>
         <v>-12.413832642390147</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>30</v>
       </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>83</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>20</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>92</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="4"/>
+      <c r="N50" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="8"/>
         <v>33580</v>
       </c>
-      <c r="M50" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P50" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>12455</v>
       </c>
-      <c r="N50" t="s">
+      <c r="Q50" t="s">
         <v>163</v>
       </c>
-      <c r="O50" t="s">
+      <c r="R50" t="s">
         <v>164</v>
       </c>
-      <c r="P50" t="s">
+      <c r="S50" t="s">
         <v>51</v>
       </c>
-      <c r="Q50" t="str">
-        <f t="shared" si="6"/>
+      <c r="T50" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>165</v>
       </c>
@@ -4754,59 +5363,71 @@
         <v>196</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>87</v>
       </c>
-      <c r="E51" s="3">
-        <f t="shared" si="2"/>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>191.75</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="5"/>
         <v>22.646813827571847</v>
       </c>
-      <c r="F51" s="5">
-        <f>RANK(E51, BMI)</f>
+      <c r="H51" s="5">
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
-      <c r="G51" s="3">
-        <f t="shared" si="3"/>
+      <c r="I51" s="3">
+        <f t="shared" si="6"/>
         <v>-10.68325185226346</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
         <v>29</v>
       </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
         <v>64</v>
       </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>45</v>
       </c>
-      <c r="K51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M51" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="M51" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P51" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q51" t="s">
         <v>166</v>
       </c>
-      <c r="O51" t="s">
+      <c r="R51" t="s">
         <v>167</v>
       </c>
-      <c r="P51" t="s">
+      <c r="S51" t="s">
         <v>51</v>
       </c>
-      <c r="Q51" t="str">
-        <f t="shared" si="6"/>
+      <c r="T51" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>168</v>
       </c>
@@ -4814,59 +5435,71 @@
         <v>171</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="3"/>
         <v>1.71</v>
       </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="2"/>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F52" s="5">
-        <f>RANK(E52, BMI)</f>
+      <c r="H52" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G52" s="3">
-        <f t="shared" si="3"/>
+      <c r="I52" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H52" t="s">
+      <c r="J52" t="s">
         <v>45</v>
       </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
         <v>33</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
         <v>33</v>
       </c>
-      <c r="K52" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M52" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="M52" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P52" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q52" t="s">
         <v>169</v>
       </c>
-      <c r="O52" t="s">
+      <c r="R52" t="s">
         <v>143</v>
       </c>
-      <c r="P52" t="s">
+      <c r="S52" t="s">
         <v>170</v>
       </c>
-      <c r="Q52" t="str">
-        <f t="shared" si="6"/>
+      <c r="T52" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -4874,59 +5507,71 @@
         <v>184</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="3"/>
         <v>1.84</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>50</v>
       </c>
-      <c r="E53" s="3">
-        <f t="shared" si="2"/>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="5"/>
         <v>14.768431001890358</v>
       </c>
-      <c r="F53" s="5">
-        <f>RANK(E53, BMI)</f>
+      <c r="H53" s="5">
+        <f t="shared" si="11"/>
         <v>58</v>
       </c>
-      <c r="G53" s="3">
-        <f t="shared" si="3"/>
+      <c r="I53" s="3">
+        <f t="shared" si="6"/>
         <v>-18.561634677944951</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
         <v>29</v>
       </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>95</v>
       </c>
-      <c r="J53" t="s">
+      <c r="L53" t="s">
         <v>13</v>
       </c>
-      <c r="K53" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M53" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="M53" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P53" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q53" t="s">
         <v>123</v>
       </c>
-      <c r="O53" t="s">
+      <c r="R53" t="s">
         <v>172</v>
       </c>
-      <c r="P53" t="s">
+      <c r="S53" t="s">
         <v>170</v>
       </c>
-      <c r="Q53" t="str">
-        <f t="shared" si="6"/>
+      <c r="T53" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>173</v>
       </c>
@@ -4934,59 +5579,71 @@
         <v>188</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="3"/>
         <v>1.88</v>
       </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="2"/>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F54" s="5">
-        <f>RANK(E54, BMI)</f>
+      <c r="H54" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G54" s="3">
-        <f t="shared" si="3"/>
+      <c r="I54" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
         <v>29</v>
       </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
         <v>83</v>
       </c>
-      <c r="J54" t="s">
+      <c r="L54" t="s">
         <v>69</v>
       </c>
-      <c r="K54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M54" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="M54" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P54" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q54" t="s">
         <v>174</v>
       </c>
-      <c r="O54" t="s">
+      <c r="R54" t="s">
         <v>175</v>
       </c>
-      <c r="P54" t="s">
+      <c r="S54" t="s">
         <v>170</v>
       </c>
-      <c r="Q54" t="str">
-        <f t="shared" si="6"/>
+      <c r="T54" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>176</v>
       </c>
@@ -4994,59 +5651,71 @@
         <v>264</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>103.5</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="3"/>
         <v>2.64</v>
       </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="2"/>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F55" s="5">
-        <f>RANK(E55, BMI)</f>
+      <c r="H55" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G55" s="3">
-        <f t="shared" si="3"/>
+      <c r="I55" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H55" t="s">
+      <c r="J55" t="s">
         <v>29</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
         <v>30</v>
       </c>
-      <c r="J55" t="s">
+      <c r="L55" t="s">
         <v>20</v>
       </c>
-      <c r="K55" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M55" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="M55" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P55" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q55" t="s">
         <v>177</v>
       </c>
-      <c r="O55" t="s">
+      <c r="R55" t="s">
         <v>178</v>
       </c>
-      <c r="P55" t="s">
+      <c r="S55" t="s">
         <v>117</v>
       </c>
-      <c r="Q55" t="str">
-        <f t="shared" si="6"/>
+      <c r="T55" t="str">
+        <f t="shared" si="10"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -5054,59 +5723,71 @@
         <v>188</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="3"/>
         <v>1.88</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>80</v>
       </c>
-      <c r="E56" s="3">
-        <f t="shared" si="2"/>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>176.25</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="5"/>
         <v>22.634676324128566</v>
       </c>
-      <c r="F56" s="5">
-        <f>RANK(E56, BMI)</f>
+      <c r="H56" s="5">
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
-      <c r="G56" s="3">
-        <f t="shared" si="3"/>
+      <c r="I56" s="3">
+        <f t="shared" si="6"/>
         <v>-10.695389355706741</v>
       </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
         <v>29</v>
       </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
         <v>69</v>
       </c>
-      <c r="J56" t="s">
+      <c r="L56" t="s">
         <v>45</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>22</v>
       </c>
-      <c r="L56">
-        <f t="shared" si="4"/>
+      <c r="N56" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="8"/>
         <v>8030</v>
       </c>
-      <c r="M56" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P56" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>38005</v>
       </c>
-      <c r="N56" t="s">
+      <c r="Q56" t="s">
         <v>180</v>
       </c>
-      <c r="O56" t="s">
+      <c r="R56" t="s">
         <v>181</v>
       </c>
-      <c r="P56" t="s">
+      <c r="S56" t="s">
         <v>51</v>
       </c>
-      <c r="Q56" t="str">
-        <f t="shared" si="6"/>
+      <c r="T56" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>182</v>
       </c>
@@ -5114,59 +5795,71 @@
         <v>196</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
-      <c r="D57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="2"/>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F57" s="5">
-        <f>RANK(E57, BMI)</f>
+      <c r="H57" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G57" s="3">
-        <f t="shared" si="3"/>
+      <c r="I57" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H57" t="s">
+      <c r="J57" t="s">
         <v>29</v>
       </c>
-      <c r="I57" t="s">
+      <c r="K57" t="s">
         <v>13</v>
       </c>
-      <c r="J57" t="s">
+      <c r="L57" t="s">
         <v>13</v>
       </c>
-      <c r="K57" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M57" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N57" t="s">
+      <c r="M57" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P57" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q57" t="s">
         <v>183</v>
       </c>
-      <c r="O57" t="s">
+      <c r="R57" t="s">
         <v>184</v>
       </c>
-      <c r="P57" t="s">
+      <c r="S57" t="s">
         <v>126</v>
       </c>
-      <c r="Q57" t="str">
-        <f t="shared" si="6"/>
+      <c r="T57" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>185</v>
       </c>
@@ -5174,59 +5867,71 @@
         <v>185</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>72.5</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="3"/>
         <v>1.85</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>85</v>
       </c>
-      <c r="E58" s="3">
-        <f t="shared" si="2"/>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>187.25</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="5"/>
         <v>24.835646457268076</v>
       </c>
-      <c r="F58" s="5">
-        <f>RANK(E58, BMI)</f>
+      <c r="H58" s="5">
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="G58" s="3">
-        <f t="shared" si="3"/>
+      <c r="I58" s="3">
+        <f t="shared" si="6"/>
         <v>-8.494419222567231</v>
       </c>
-      <c r="H58" t="s">
+      <c r="J58" t="s">
         <v>45</v>
       </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>95</v>
       </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
         <v>33</v>
       </c>
-      <c r="K58" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M58" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="M58" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P58" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q58" t="s">
         <v>26</v>
       </c>
-      <c r="O58" t="s">
+      <c r="R58" t="s">
         <v>15</v>
       </c>
-      <c r="P58" t="s">
+      <c r="S58" t="s">
         <v>186</v>
       </c>
-      <c r="Q58" t="str">
-        <f t="shared" si="6"/>
+      <c r="T58" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>187</v>
       </c>
@@ -5234,59 +5939,71 @@
         <v>157</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>61.5</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="3"/>
         <v>1.57</v>
       </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="2"/>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F59" s="5">
-        <f>RANK(E59, BMI)</f>
+      <c r="H59" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G59" s="3">
-        <f t="shared" si="3"/>
+      <c r="I59" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
-      </c>
-      <c r="H59" t="s">
-        <v>33</v>
-      </c>
-      <c r="I59" t="s">
-        <v>34</v>
       </c>
       <c r="J59" t="s">
         <v>33</v>
       </c>
       <c r="K59" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M59" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N59" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P59" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q59" t="s">
         <v>26</v>
       </c>
-      <c r="O59" t="s">
+      <c r="R59" t="s">
         <v>15</v>
       </c>
-      <c r="P59" t="s">
+      <c r="S59" t="s">
         <v>186</v>
       </c>
-      <c r="Q59" t="str">
-        <f t="shared" si="6"/>
+      <c r="T59" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>188</v>
       </c>
@@ -5294,59 +6011,71 @@
         <v>183</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="3"/>
         <v>1.83</v>
       </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="2"/>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F60" s="5">
-        <f>RANK(E60, BMI)</f>
+      <c r="H60" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G60" s="3">
-        <f t="shared" si="3"/>
+      <c r="I60" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>33</v>
       </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
         <v>12</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>13</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>82</v>
       </c>
-      <c r="L60">
-        <f t="shared" si="4"/>
+      <c r="N60" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="8"/>
         <v>29930</v>
       </c>
-      <c r="M60" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P60" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>16105</v>
       </c>
-      <c r="N60" t="s">
+      <c r="Q60" t="s">
         <v>14</v>
       </c>
-      <c r="O60" t="s">
+      <c r="R60" t="s">
         <v>15</v>
       </c>
-      <c r="P60" t="s">
+      <c r="S60" t="s">
         <v>186</v>
       </c>
-      <c r="Q60" t="str">
-        <f t="shared" si="6"/>
+      <c r="T60" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>189</v>
       </c>
@@ -5354,59 +6083,71 @@
         <v>183</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="3"/>
         <v>1.83</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>80</v>
       </c>
-      <c r="E61" s="3">
-        <f t="shared" si="2"/>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>176.25</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="5"/>
         <v>23.888440980620498</v>
       </c>
-      <c r="F61" s="5">
-        <f>RANK(E61, BMI)</f>
+      <c r="H61" s="5">
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="G61" s="3">
-        <f t="shared" si="3"/>
+      <c r="I61" s="3">
+        <f t="shared" si="6"/>
         <v>-9.4416246992148096</v>
       </c>
-      <c r="H61" t="s">
+      <c r="J61" t="s">
         <v>29</v>
       </c>
-      <c r="I61" t="s">
+      <c r="K61" t="s">
         <v>64</v>
       </c>
-      <c r="J61" t="s">
+      <c r="L61" t="s">
         <v>20</v>
       </c>
-      <c r="K61" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M61" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="M61" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P61" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q61" t="s">
         <v>190</v>
       </c>
-      <c r="O61" t="s">
+      <c r="R61" t="s">
         <v>191</v>
       </c>
-      <c r="P61" t="s">
+      <c r="S61" t="s">
         <v>192</v>
       </c>
-      <c r="Q61" t="str">
-        <f t="shared" si="6"/>
+      <c r="T61" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>193</v>
       </c>
@@ -5414,59 +6155,71 @@
         <v>170</v>
       </c>
       <c r="C62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>56.2</v>
       </c>
-      <c r="E62" s="3">
-        <f t="shared" si="2"/>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>123.75</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="5"/>
         <v>19.446366782006923</v>
       </c>
-      <c r="F62" s="5">
-        <f>RANK(E62, BMI)</f>
+      <c r="H62" s="5">
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
-      <c r="G62" s="3">
-        <f t="shared" si="3"/>
+      <c r="I62" s="3">
+        <f t="shared" si="6"/>
         <v>-13.883698897828385</v>
       </c>
-      <c r="H62" t="s">
+      <c r="J62" t="s">
         <v>45</v>
       </c>
-      <c r="I62" t="s">
+      <c r="K62" t="s">
         <v>20</v>
       </c>
-      <c r="J62" t="s">
+      <c r="L62" t="s">
         <v>13</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>58</v>
       </c>
-      <c r="L62">
-        <f t="shared" si="4"/>
+      <c r="N62" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="8"/>
         <v>21170</v>
       </c>
-      <c r="M62" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P62" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>24865</v>
       </c>
-      <c r="N62" t="s">
+      <c r="Q62" t="s">
         <v>194</v>
       </c>
-      <c r="O62" t="s">
+      <c r="R62" t="s">
         <v>195</v>
       </c>
-      <c r="P62" t="s">
+      <c r="S62" t="s">
         <v>192</v>
       </c>
-      <c r="Q62" t="str">
-        <f t="shared" si="6"/>
+      <c r="T62" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>196</v>
       </c>
@@ -5474,59 +6227,71 @@
         <v>166</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="3"/>
         <v>1.66</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>50</v>
       </c>
-      <c r="E63" s="3">
-        <f t="shared" si="2"/>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="5"/>
         <v>18.144868631151112</v>
       </c>
-      <c r="F63" s="5">
-        <f>RANK(E63, BMI)</f>
+      <c r="H63" s="5">
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="G63" s="3">
-        <f t="shared" si="3"/>
+      <c r="I63" s="3">
+        <f t="shared" si="6"/>
         <v>-15.185197048684195</v>
       </c>
-      <c r="H63" t="s">
+      <c r="J63" t="s">
         <v>45</v>
       </c>
-      <c r="I63" t="s">
+      <c r="K63" t="s">
         <v>20</v>
       </c>
-      <c r="J63" t="s">
+      <c r="L63" t="s">
         <v>13</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>40</v>
       </c>
-      <c r="L63">
-        <f t="shared" si="4"/>
+      <c r="N63" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="8"/>
         <v>14600</v>
       </c>
-      <c r="M63" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P63" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>31435</v>
       </c>
-      <c r="N63" t="s">
+      <c r="Q63" t="s">
         <v>194</v>
       </c>
-      <c r="O63" t="s">
+      <c r="R63" t="s">
         <v>195</v>
       </c>
-      <c r="P63" t="s">
+      <c r="S63" t="s">
         <v>186</v>
       </c>
-      <c r="Q63" t="str">
-        <f t="shared" si="6"/>
+      <c r="T63" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>197</v>
       </c>
@@ -5534,59 +6299,71 @@
         <v>165</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>64.5</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="3"/>
         <v>1.65</v>
       </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" si="2"/>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F64" s="5">
-        <f>RANK(E64, BMI)</f>
+      <c r="H64" s="5">
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="G64" s="3">
-        <f t="shared" si="3"/>
+      <c r="I64" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
-      </c>
-      <c r="H64" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" t="s">
-        <v>34</v>
       </c>
       <c r="J64" t="s">
         <v>33</v>
       </c>
       <c r="K64" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-      <c r="M64" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>NA</v>
-      </c>
-      <c r="N64" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M64" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="8"/>
+        <v>NA</v>
+      </c>
+      <c r="P64" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="Q64" t="s">
         <v>26</v>
       </c>
-      <c r="O64" t="s">
+      <c r="R64" t="s">
         <v>15</v>
       </c>
-      <c r="P64" t="s">
+      <c r="S64" t="s">
         <v>186</v>
       </c>
-      <c r="Q64" t="str">
-        <f t="shared" si="6"/>
+      <c r="T64" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -5594,59 +6371,71 @@
         <v>193</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>75.5</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="3"/>
         <v>1.93</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>80</v>
       </c>
-      <c r="E65" s="3">
-        <f t="shared" si="2"/>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>176.25</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="5"/>
         <v>21.477086633198208</v>
       </c>
-      <c r="F65" s="5">
-        <f>RANK(E65, BMI)</f>
+      <c r="H65" s="5">
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
-      <c r="G65" s="3">
-        <f t="shared" si="3"/>
+      <c r="I65" s="3">
+        <f t="shared" si="6"/>
         <v>-11.852979046637099</v>
       </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
         <v>30</v>
       </c>
-      <c r="I65" t="s">
+      <c r="K65" t="s">
         <v>12</v>
       </c>
-      <c r="J65" t="s">
+      <c r="L65" t="s">
         <v>33</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>102</v>
       </c>
-      <c r="L65">
-        <f t="shared" si="4"/>
+      <c r="N65" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="8"/>
         <v>37230</v>
       </c>
-      <c r="M65" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P65" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>8805</v>
       </c>
-      <c r="N65" t="s">
+      <c r="Q65" t="s">
         <v>199</v>
       </c>
-      <c r="O65" t="s">
+      <c r="R65" t="s">
         <v>15</v>
       </c>
-      <c r="P65" t="s">
+      <c r="S65" t="s">
         <v>192</v>
       </c>
-      <c r="Q65" t="str">
-        <f t="shared" si="6"/>
+      <c r="T65" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -5654,59 +6443,71 @@
         <v>191</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="3"/>
         <v>1.91</v>
       </c>
-      <c r="D66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="3">
-        <f t="shared" si="2"/>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F66" s="5">
-        <f>RANK(E66, BMI)</f>
+      <c r="H66" s="5">
+        <f t="shared" ref="H66:H97" si="12">RANK(G66, BMI)</f>
         <v>60</v>
       </c>
-      <c r="G66" s="3">
-        <f t="shared" si="3"/>
+      <c r="I66" s="3">
+        <f t="shared" si="6"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H66" t="s">
+      <c r="J66" t="s">
         <v>45</v>
       </c>
-      <c r="I66" t="s">
+      <c r="K66" t="s">
         <v>201</v>
       </c>
-      <c r="J66" t="s">
+      <c r="L66" t="s">
         <v>33</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>67</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="4"/>
+      <c r="N66" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="8"/>
         <v>24455</v>
       </c>
-      <c r="M66" s="6">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P66" s="6">
+        <f t="shared" ca="1" si="9"/>
         <v>21580</v>
       </c>
-      <c r="N66" t="s">
+      <c r="Q66" t="s">
         <v>35</v>
       </c>
-      <c r="O66" t="s">
+      <c r="R66" t="s">
         <v>15</v>
       </c>
-      <c r="P66" t="s">
+      <c r="S66" t="s">
         <v>192</v>
       </c>
-      <c r="Q66" t="str">
-        <f t="shared" si="6"/>
+      <c r="T66" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -5714,59 +6515,71 @@
         <v>183</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C88" si="7">IFERROR(B67/100, "NA")</f>
+        <f t="shared" ref="C67:C88" si="13">FLOOR(CONVERT(B67, "cm", "in"), 0.5)</f>
+        <v>72</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D88" si="14">IFERROR(B67/100, "NA")</f>
         <v>1.83</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>79</v>
       </c>
-      <c r="E67" s="3">
-        <f t="shared" ref="E67:E88" si="8">IF(IF(C67="NA", 1, IF(D67="NA", 1, 0)), 0, D67/(C67^2))</f>
+      <c r="F67">
+        <f t="shared" ref="F67:F88" si="15">FLOOR(CONVERT(E67, "kg", "lbm"), 0.25)</f>
+        <v>174</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" ref="G67:G88" si="16">IF(IF(D67="NA", 1, IF(E67="NA", 1, 0)), 0, E67/(D67^2))</f>
         <v>23.589835468362743</v>
       </c>
-      <c r="F67" s="5">
-        <f>RANK(E67, BMI)</f>
+      <c r="H67" s="5">
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
-      <c r="G67" s="3">
-        <f t="shared" ref="G67:G88" si="9">IFERROR(E67-$E$5, "NA")</f>
+      <c r="I67" s="3">
+        <f t="shared" ref="I67:I88" si="17">IFERROR(G67-$G$5, "NA")</f>
         <v>-9.7402302114725643</v>
       </c>
-      <c r="H67" t="s">
+      <c r="J67" t="s">
         <v>45</v>
       </c>
-      <c r="I67" t="s">
+      <c r="K67" t="s">
         <v>201</v>
       </c>
-      <c r="J67" t="s">
+      <c r="L67" t="s">
         <v>33</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>66</v>
       </c>
-      <c r="L67">
-        <f t="shared" ref="L67:L88" si="10">IF(K67&lt;&gt;"NA", K67*365, "NA")</f>
+      <c r="N67" t="b">
+        <f t="shared" ref="N67:N88" si="18">ISNUMBER(M67)</f>
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O88" si="19">IF(M67&lt;&gt;"NA", M67*365, "NA")</f>
         <v>24090</v>
       </c>
-      <c r="M67" s="6">
-        <f t="shared" ref="M67:M88" ca="1" si="11">IF(L67="NA", "NA", TODAY()-L67)</f>
+      <c r="P67" s="6">
+        <f t="shared" ref="P67:P88" ca="1" si="20">IF(O67="NA", "NA", TODAY()-O67)</f>
         <v>21945</v>
       </c>
-      <c r="N67" t="s">
+      <c r="Q67" t="s">
         <v>203</v>
       </c>
-      <c r="O67" t="s">
+      <c r="R67" t="s">
         <v>15</v>
       </c>
-      <c r="P67" t="s">
+      <c r="S67" t="s">
         <v>186</v>
       </c>
-      <c r="Q67" t="str">
-        <f t="shared" si="6"/>
+      <c r="T67" t="str">
+        <f t="shared" si="10"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>204</v>
       </c>
@@ -5774,59 +6587,71 @@
         <v>168</v>
       </c>
       <c r="C68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="14"/>
         <v>1.68</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>55</v>
       </c>
-      <c r="E68" s="3">
-        <f t="shared" si="8"/>
+      <c r="F68">
+        <f t="shared" si="15"/>
+        <v>121.25</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="16"/>
         <v>19.486961451247168</v>
       </c>
-      <c r="F68" s="5">
-        <f>RANK(E68, BMI)</f>
+      <c r="H68" s="5">
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
-      <c r="G68" s="3">
-        <f t="shared" si="9"/>
+      <c r="I68" s="3">
+        <f t="shared" si="17"/>
         <v>-13.843104228588139</v>
       </c>
-      <c r="H68" t="s">
+      <c r="J68" t="s">
         <v>205</v>
       </c>
-      <c r="I68" t="s">
+      <c r="K68" t="s">
         <v>206</v>
       </c>
-      <c r="J68" t="s">
+      <c r="L68" t="s">
         <v>20</v>
       </c>
-      <c r="K68" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" t="str">
+      <c r="M68" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P68" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>207</v>
+      </c>
+      <c r="R68" t="s">
+        <v>208</v>
+      </c>
+      <c r="S68" t="s">
+        <v>186</v>
+      </c>
+      <c r="T68" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M68" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N68" t="s">
-        <v>207</v>
-      </c>
-      <c r="O68" t="s">
-        <v>208</v>
-      </c>
-      <c r="P68" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q68" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -5834,59 +6659,71 @@
         <v>198</v>
       </c>
       <c r="C69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>77.5</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="14"/>
         <v>1.98</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>102</v>
       </c>
-      <c r="E69" s="3">
-        <f t="shared" si="8"/>
+      <c r="F69">
+        <f t="shared" si="15"/>
+        <v>224.75</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="16"/>
         <v>26.017753290480563</v>
       </c>
-      <c r="F69" s="5">
-        <f>RANK(E69, BMI)</f>
+      <c r="H69" s="5">
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="G69" s="3">
-        <f t="shared" si="9"/>
+      <c r="I69" s="3">
+        <f t="shared" si="17"/>
         <v>-7.3123123893547444</v>
       </c>
-      <c r="H69" t="s">
+      <c r="J69" t="s">
         <v>29</v>
       </c>
-      <c r="I69" t="s">
+      <c r="K69" t="s">
         <v>33</v>
       </c>
-      <c r="J69" t="s">
+      <c r="L69" t="s">
         <v>20</v>
       </c>
-      <c r="K69" t="s">
-        <v>18</v>
-      </c>
-      <c r="L69" t="str">
+      <c r="M69" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P69" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>210</v>
+      </c>
+      <c r="R69" t="s">
+        <v>211</v>
+      </c>
+      <c r="S69" t="s">
+        <v>186</v>
+      </c>
+      <c r="T69" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M69" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N69" t="s">
-        <v>210</v>
-      </c>
-      <c r="O69" t="s">
-        <v>211</v>
-      </c>
-      <c r="P69" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q69" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>212</v>
       </c>
@@ -5894,59 +6731,71 @@
         <v>229</v>
       </c>
       <c r="C70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="14"/>
         <v>2.29</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>88</v>
       </c>
-      <c r="E70" s="3">
-        <f t="shared" si="8"/>
+      <c r="F70">
+        <f t="shared" si="15"/>
+        <v>194</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="16"/>
         <v>16.780763143342039</v>
       </c>
-      <c r="F70" s="5">
-        <f>RANK(E70, BMI)</f>
+      <c r="H70" s="5">
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
-      <c r="G70" s="3">
-        <f t="shared" si="9"/>
+      <c r="I70" s="3">
+        <f t="shared" si="17"/>
         <v>-16.549302536493268</v>
       </c>
-      <c r="H70" t="s">
+      <c r="J70" t="s">
         <v>29</v>
       </c>
-      <c r="I70" t="s">
+      <c r="K70" t="s">
         <v>82</v>
       </c>
-      <c r="J70" t="s">
+      <c r="L70" t="s">
         <v>45</v>
       </c>
-      <c r="K70" t="s">
-        <v>18</v>
-      </c>
-      <c r="L70" t="str">
+      <c r="M70" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P70" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>86</v>
+      </c>
+      <c r="R70" t="s">
+        <v>213</v>
+      </c>
+      <c r="S70" t="s">
+        <v>186</v>
+      </c>
+      <c r="T70" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M70" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N70" t="s">
-        <v>86</v>
-      </c>
-      <c r="O70" t="s">
-        <v>213</v>
-      </c>
-      <c r="P70" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q70" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -5954,59 +6803,71 @@
         <v>213</v>
       </c>
       <c r="C71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>83.5</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="14"/>
         <v>2.13</v>
       </c>
-      <c r="D71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="3">
-        <f t="shared" si="8"/>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F71" s="5">
-        <f>RANK(E71, BMI)</f>
+      <c r="H71" s="5">
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="G71" s="3">
-        <f t="shared" si="9"/>
+      <c r="I71" s="3">
+        <f t="shared" si="17"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H71" t="s">
+      <c r="J71" t="s">
         <v>29</v>
       </c>
-      <c r="I71" t="s">
+      <c r="K71" t="s">
         <v>82</v>
       </c>
-      <c r="J71" t="s">
+      <c r="L71" t="s">
         <v>45</v>
       </c>
-      <c r="K71" t="s">
-        <v>18</v>
-      </c>
-      <c r="L71" t="str">
+      <c r="M71" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P71" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>86</v>
+      </c>
+      <c r="R71" t="s">
+        <v>213</v>
+      </c>
+      <c r="S71" t="s">
+        <v>186</v>
+      </c>
+      <c r="T71" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M71" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N71" t="s">
-        <v>86</v>
-      </c>
-      <c r="O71" t="s">
-        <v>213</v>
-      </c>
-      <c r="P71" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q71" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -6014,59 +6875,71 @@
         <v>167</v>
       </c>
       <c r="C72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>65.5</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="14"/>
         <v>1.67</v>
       </c>
-      <c r="D72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="3">
-        <f t="shared" si="8"/>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F72" s="5">
-        <f>RANK(E72, BMI)</f>
+      <c r="H72" s="5">
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="G72" s="3">
-        <f t="shared" si="9"/>
+      <c r="I72" s="3">
+        <f t="shared" si="17"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H72" t="s">
+      <c r="J72" t="s">
         <v>30</v>
       </c>
-      <c r="I72" t="s">
+      <c r="K72" t="s">
         <v>12</v>
       </c>
-      <c r="J72" t="s">
+      <c r="L72" t="s">
         <v>13</v>
       </c>
-      <c r="K72" t="s">
-        <v>18</v>
-      </c>
-      <c r="L72" t="str">
+      <c r="M72" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P72" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>123</v>
+      </c>
+      <c r="R72" t="s">
+        <v>15</v>
+      </c>
+      <c r="S72" t="s">
+        <v>186</v>
+      </c>
+      <c r="T72" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M72" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N72" t="s">
-        <v>123</v>
-      </c>
-      <c r="O72" t="s">
-        <v>15</v>
-      </c>
-      <c r="P72" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q72" t="str">
-        <f t="shared" si="6"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>216</v>
       </c>
@@ -6074,59 +6947,71 @@
         <v>79</v>
       </c>
       <c r="C73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="14"/>
         <v>0.79</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>15</v>
       </c>
-      <c r="E73" s="3">
-        <f t="shared" si="8"/>
+      <c r="F73">
+        <f t="shared" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="16"/>
         <v>24.034609838166958</v>
       </c>
-      <c r="F73" s="5">
-        <f>RANK(E73, BMI)</f>
+      <c r="H73" s="5">
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="G73" s="3">
-        <f t="shared" si="9"/>
+      <c r="I73" s="3">
+        <f t="shared" si="17"/>
         <v>-9.2954558416683497</v>
       </c>
-      <c r="H73" t="s">
+      <c r="J73" t="s">
         <v>29</v>
       </c>
-      <c r="I73" t="s">
+      <c r="K73" t="s">
         <v>217</v>
       </c>
-      <c r="J73" t="s">
+      <c r="L73" t="s">
         <v>57</v>
       </c>
-      <c r="K73" t="s">
-        <v>18</v>
-      </c>
-      <c r="L73" t="str">
+      <c r="M73" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P73" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>218</v>
+      </c>
+      <c r="R73" t="s">
+        <v>219</v>
+      </c>
+      <c r="S73" t="s">
+        <v>117</v>
+      </c>
+      <c r="T73" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M73" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N73" t="s">
-        <v>218</v>
-      </c>
-      <c r="O73" t="s">
-        <v>219</v>
-      </c>
-      <c r="P73" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q73" t="str">
-        <f t="shared" si="6"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>220</v>
       </c>
@@ -6134,59 +7019,71 @@
         <v>96</v>
       </c>
       <c r="C74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>37.5</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="14"/>
         <v>0.96</v>
       </c>
-      <c r="D74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" si="8"/>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F74" s="5">
-        <f>RANK(E74, BMI)</f>
+      <c r="H74" s="5">
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="G74" s="3">
-        <f t="shared" si="9"/>
+      <c r="I74" s="3">
+        <f t="shared" si="17"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H74" t="s">
+      <c r="J74" t="s">
         <v>29</v>
       </c>
-      <c r="I74" t="s">
+      <c r="K74" t="s">
         <v>221</v>
       </c>
-      <c r="J74" t="s">
+      <c r="L74" t="s">
         <v>222</v>
       </c>
-      <c r="K74" t="s">
-        <v>18</v>
-      </c>
-      <c r="L74" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M74" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N74" t="s">
-        <v>18</v>
-      </c>
-      <c r="O74" t="s">
-        <v>18</v>
-      </c>
-      <c r="P74" t="s">
+      <c r="M74" t="s">
+        <v>18</v>
+      </c>
+      <c r="N74" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P74" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>18</v>
+      </c>
+      <c r="R74" t="s">
+        <v>18</v>
+      </c>
+      <c r="S74" t="s">
         <v>192</v>
       </c>
-      <c r="Q74" t="str">
-        <f t="shared" ref="Q74:Q88" si="12">TRIM(IFERROR(LEFT(P74,SEARCH(",", P74)-1), P74))</f>
+      <c r="T74" t="str">
+        <f t="shared" ref="T74:T88" si="21">TRIM(IFERROR(LEFT(S74,SEARCH(",", S74)-1), S74))</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -6194,59 +7091,71 @@
         <v>193</v>
       </c>
       <c r="C75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>75.5</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="14"/>
         <v>1.93</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>48</v>
       </c>
-      <c r="E75" s="3">
-        <f t="shared" si="8"/>
+      <c r="F75">
+        <f t="shared" si="15"/>
+        <v>105.75</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="16"/>
         <v>12.886251979918924</v>
       </c>
-      <c r="F75" s="5">
-        <f>RANK(E75, BMI)</f>
+      <c r="H75" s="5">
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
-      <c r="G75" s="3">
-        <f t="shared" si="9"/>
+      <c r="I75" s="3">
+        <f t="shared" si="17"/>
         <v>-20.443813699916383</v>
       </c>
-      <c r="H75" t="s">
+      <c r="J75" t="s">
         <v>29</v>
       </c>
-      <c r="I75" t="s">
+      <c r="K75" t="s">
         <v>224</v>
       </c>
-      <c r="J75" t="s">
+      <c r="L75" t="s">
         <v>57</v>
       </c>
-      <c r="K75" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M75" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N75" t="s">
+      <c r="M75" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P75" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q75" t="s">
         <v>225</v>
       </c>
-      <c r="O75" t="s">
+      <c r="R75" t="s">
         <v>226</v>
       </c>
-      <c r="P75" t="s">
+      <c r="S75" t="s">
         <v>186</v>
       </c>
-      <c r="Q75" t="str">
-        <f t="shared" si="12"/>
+      <c r="T75" t="str">
+        <f t="shared" si="21"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>227</v>
       </c>
@@ -6254,59 +7163,71 @@
         <v>191</v>
       </c>
       <c r="C76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="14"/>
         <v>1.91</v>
       </c>
-      <c r="D76" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="3">
-        <f t="shared" si="8"/>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F76" s="5">
-        <f>RANK(E76, BMI)</f>
+      <c r="H76" s="5">
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="G76" s="3">
-        <f t="shared" si="9"/>
+      <c r="I76" s="3">
+        <f t="shared" si="17"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H76" t="s">
+      <c r="J76" t="s">
         <v>29</v>
       </c>
-      <c r="I76" t="s">
+      <c r="K76" t="s">
         <v>82</v>
       </c>
-      <c r="J76" t="s">
+      <c r="L76" t="s">
         <v>19</v>
       </c>
-      <c r="K76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L76" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M76" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N76" t="s">
+      <c r="M76" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P76" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q76" t="s">
         <v>228</v>
       </c>
-      <c r="O76" t="s">
+      <c r="R76" t="s">
         <v>229</v>
       </c>
-      <c r="P76" t="s">
+      <c r="S76" t="s">
         <v>186</v>
       </c>
-      <c r="Q76" t="str">
-        <f t="shared" si="12"/>
+      <c r="T76" t="str">
+        <f t="shared" si="21"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>230</v>
       </c>
@@ -6314,59 +7235,71 @@
         <v>178</v>
       </c>
       <c r="C77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="14"/>
         <v>1.78</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>57</v>
       </c>
-      <c r="E77" s="3">
-        <f t="shared" si="8"/>
+      <c r="F77">
+        <f t="shared" si="15"/>
+        <v>125.5</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="16"/>
         <v>17.99015275849009</v>
       </c>
-      <c r="F77" s="5">
-        <f>RANK(E77, BMI)</f>
+      <c r="H77" s="5">
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
-      <c r="G77" s="3">
-        <f t="shared" si="9"/>
+      <c r="I77" s="3">
+        <f t="shared" si="17"/>
         <v>-15.339912921345217</v>
       </c>
-      <c r="H77" t="s">
+      <c r="J77" t="s">
         <v>29</v>
       </c>
-      <c r="I77" t="s">
+      <c r="K77" t="s">
         <v>231</v>
       </c>
-      <c r="J77" t="s">
+      <c r="L77" t="s">
         <v>45</v>
       </c>
-      <c r="K77" t="s">
-        <v>18</v>
-      </c>
-      <c r="L77" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M77" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N77" t="s">
+      <c r="M77" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P77" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q77" t="s">
         <v>232</v>
       </c>
-      <c r="O77" t="s">
+      <c r="R77" t="s">
         <v>233</v>
       </c>
-      <c r="P77" t="s">
+      <c r="S77" t="s">
         <v>192</v>
       </c>
-      <c r="Q77" t="str">
-        <f t="shared" si="12"/>
+      <c r="T77" t="str">
+        <f t="shared" si="21"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>234</v>
       </c>
@@ -6374,59 +7307,71 @@
         <v>216</v>
       </c>
       <c r="C78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>85</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="14"/>
         <v>2.16</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>159</v>
       </c>
-      <c r="E78" s="3">
-        <f t="shared" si="8"/>
+      <c r="F78">
+        <f t="shared" si="15"/>
+        <v>350.5</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="16"/>
         <v>34.079218106995881</v>
       </c>
-      <c r="F78" s="5">
-        <f>RANK(E78, BMI)</f>
+      <c r="H78" s="5">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="G78" s="3">
-        <f t="shared" si="9"/>
+      <c r="I78" s="3">
+        <f t="shared" si="17"/>
         <v>0.74915242716057406</v>
       </c>
-      <c r="H78" t="s">
+      <c r="J78" t="s">
         <v>29</v>
       </c>
-      <c r="I78" t="s">
+      <c r="K78" t="s">
         <v>235</v>
       </c>
-      <c r="J78" t="s">
+      <c r="L78" t="s">
         <v>236</v>
       </c>
-      <c r="K78" t="s">
-        <v>18</v>
-      </c>
-      <c r="L78" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M78" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N78" t="s">
+      <c r="M78" t="s">
+        <v>18</v>
+      </c>
+      <c r="N78" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P78" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q78" t="s">
         <v>237</v>
       </c>
-      <c r="O78" t="s">
+      <c r="R78" t="s">
         <v>238</v>
       </c>
-      <c r="P78" t="s">
+      <c r="S78" t="s">
         <v>239</v>
       </c>
-      <c r="Q78" t="str">
-        <f t="shared" si="12"/>
+      <c r="T78" t="str">
+        <f t="shared" si="21"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -6434,59 +7379,71 @@
         <v>234</v>
       </c>
       <c r="C79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>92</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="14"/>
         <v>2.34</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>136</v>
       </c>
-      <c r="E79" s="3">
-        <f t="shared" si="8"/>
+      <c r="F79">
+        <f t="shared" si="15"/>
+        <v>299.75</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="16"/>
         <v>24.837460734896638</v>
       </c>
-      <c r="F79" s="5">
-        <f>RANK(E79, BMI)</f>
+      <c r="H79" s="5">
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="G79" s="3">
-        <f t="shared" si="9"/>
+      <c r="I79" s="3">
+        <f t="shared" si="17"/>
         <v>-8.4926049449386696</v>
       </c>
-      <c r="H79" t="s">
+      <c r="J79" t="s">
         <v>33</v>
       </c>
-      <c r="I79" t="s">
+      <c r="K79" t="s">
         <v>33</v>
       </c>
-      <c r="J79" t="s">
+      <c r="L79" t="s">
         <v>13</v>
       </c>
-      <c r="K79" t="s">
-        <v>18</v>
-      </c>
-      <c r="L79" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M79" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N79" t="s">
+      <c r="M79" t="s">
+        <v>18</v>
+      </c>
+      <c r="N79" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P79" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q79" t="s">
         <v>58</v>
       </c>
-      <c r="O79" t="s">
+      <c r="R79" t="s">
         <v>59</v>
       </c>
-      <c r="P79" t="s">
+      <c r="S79" t="s">
         <v>239</v>
       </c>
-      <c r="Q79" t="str">
-        <f t="shared" si="12"/>
+      <c r="T79" t="str">
+        <f t="shared" si="21"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -6494,59 +7451,71 @@
         <v>188</v>
       </c>
       <c r="C80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>74</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="14"/>
         <v>1.88</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>79</v>
       </c>
-      <c r="E80" s="3">
-        <f t="shared" si="8"/>
+      <c r="F80">
+        <f t="shared" si="15"/>
+        <v>174</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="16"/>
         <v>22.351742870076958</v>
       </c>
-      <c r="F80" s="5">
-        <f>RANK(E80, BMI)</f>
+      <c r="H80" s="5">
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
-      <c r="G80" s="3">
-        <f t="shared" si="9"/>
+      <c r="I80" s="3">
+        <f t="shared" si="17"/>
         <v>-10.97832280975835</v>
-      </c>
-      <c r="H80" t="s">
-        <v>33</v>
-      </c>
-      <c r="I80" t="s">
-        <v>34</v>
       </c>
       <c r="J80" t="s">
         <v>33</v>
       </c>
       <c r="K80" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M80" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N80" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" t="s">
+        <v>33</v>
+      </c>
+      <c r="M80" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P80" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q80" t="s">
         <v>35</v>
       </c>
-      <c r="O80" t="s">
+      <c r="R80" t="s">
         <v>15</v>
       </c>
-      <c r="P80" t="s">
+      <c r="S80" t="s">
         <v>55</v>
       </c>
-      <c r="Q80" t="str">
-        <f t="shared" si="12"/>
+      <c r="T80" t="str">
+        <f t="shared" si="21"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -6554,59 +7523,71 @@
         <v>178</v>
       </c>
       <c r="C81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="14"/>
         <v>1.78</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>48</v>
       </c>
-      <c r="E81" s="3">
-        <f t="shared" si="8"/>
+      <c r="F81">
+        <f t="shared" si="15"/>
+        <v>105.75</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="16"/>
         <v>15.149602322939023</v>
       </c>
-      <c r="F81" s="5">
-        <f>RANK(E81, BMI)</f>
+      <c r="H81" s="5">
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
-      <c r="G81" s="3">
-        <f t="shared" si="9"/>
+      <c r="I81" s="3">
+        <f t="shared" si="17"/>
         <v>-18.180463356896283</v>
       </c>
-      <c r="H81" t="s">
+      <c r="J81" t="s">
         <v>29</v>
       </c>
-      <c r="I81" t="s">
+      <c r="K81" t="s">
         <v>83</v>
       </c>
-      <c r="J81" t="s">
+      <c r="L81" t="s">
         <v>30</v>
       </c>
-      <c r="K81" t="s">
-        <v>18</v>
-      </c>
-      <c r="L81" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M81" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N81" t="s">
+      <c r="M81" t="s">
+        <v>18</v>
+      </c>
+      <c r="N81" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P81" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q81" t="s">
         <v>243</v>
       </c>
-      <c r="O81" t="s">
-        <v>18</v>
-      </c>
-      <c r="P81" t="s">
+      <c r="R81" t="s">
+        <v>18</v>
+      </c>
+      <c r="S81" t="s">
         <v>192</v>
       </c>
-      <c r="Q81" t="str">
-        <f t="shared" si="12"/>
+      <c r="T81" t="str">
+        <f t="shared" si="21"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>244</v>
       </c>
@@ -6614,359 +7595,431 @@
         <v>206</v>
       </c>
       <c r="C82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="14"/>
         <v>2.06</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>80</v>
       </c>
-      <c r="E82" s="3">
-        <f t="shared" si="8"/>
+      <c r="F82">
+        <f t="shared" si="15"/>
+        <v>176.25</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="16"/>
         <v>18.851918182675089</v>
       </c>
-      <c r="F82" s="5">
-        <f>RANK(E82, BMI)</f>
+      <c r="H82" s="5">
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="G82" s="3">
-        <f t="shared" si="9"/>
+      <c r="I82" s="3">
+        <f t="shared" si="17"/>
         <v>-14.478147497160219</v>
       </c>
-      <c r="H82" t="s">
+      <c r="J82" t="s">
         <v>29</v>
       </c>
-      <c r="I82" t="s">
+      <c r="K82" t="s">
         <v>82</v>
       </c>
-      <c r="J82" t="s">
+      <c r="L82" t="s">
         <v>45</v>
       </c>
-      <c r="K82" t="s">
-        <v>18</v>
-      </c>
-      <c r="L82" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M82" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N82" t="s">
+      <c r="M82" t="s">
+        <v>18</v>
+      </c>
+      <c r="N82" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P82" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q82" t="s">
         <v>245</v>
       </c>
-      <c r="O82" t="s">
+      <c r="R82" t="s">
         <v>246</v>
       </c>
-      <c r="P82" t="s">
+      <c r="S82" t="s">
         <v>239</v>
       </c>
-      <c r="Q82" t="str">
-        <f t="shared" si="12"/>
+      <c r="T82" t="str">
+        <f t="shared" si="21"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>247</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
       </c>
-      <c r="C83" t="str">
-        <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
-      <c r="D83" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="3">
-        <f t="shared" si="8"/>
+      <c r="C83" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F83" s="5">
-        <f>RANK(E83, BMI)</f>
+      <c r="H83" s="5">
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="G83" s="3">
-        <f t="shared" si="9"/>
+      <c r="I83" s="3">
+        <f t="shared" si="17"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H83" t="s">
+      <c r="J83" t="s">
         <v>45</v>
       </c>
-      <c r="I83" t="s">
+      <c r="K83" t="s">
         <v>95</v>
       </c>
-      <c r="J83" t="s">
+      <c r="L83" t="s">
         <v>95</v>
       </c>
-      <c r="K83" t="s">
-        <v>18</v>
-      </c>
-      <c r="L83" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M83" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N83" t="s">
-        <v>18</v>
-      </c>
-      <c r="O83" t="s">
+      <c r="M83" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P83" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>18</v>
+      </c>
+      <c r="R83" t="s">
         <v>15</v>
       </c>
-      <c r="P83" t="s">
+      <c r="S83" t="s">
         <v>248</v>
       </c>
-      <c r="Q83" t="str">
-        <f t="shared" si="12"/>
+      <c r="T83" t="str">
+        <f t="shared" si="21"/>
         <v>The Force Awakens</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>249</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
       </c>
-      <c r="C84" t="str">
-        <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
-      <c r="D84" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="3">
-        <f t="shared" si="8"/>
+      <c r="C84" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F84" s="5">
-        <f>RANK(E84, BMI)</f>
+      <c r="H84" s="5">
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="G84" s="3">
-        <f t="shared" si="9"/>
+      <c r="I84" s="3">
+        <f t="shared" si="17"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H84" t="s">
+      <c r="J84" t="s">
         <v>33</v>
       </c>
-      <c r="I84" t="s">
+      <c r="K84" t="s">
         <v>34</v>
       </c>
-      <c r="J84" t="s">
+      <c r="L84" t="s">
         <v>74</v>
       </c>
-      <c r="K84" t="s">
-        <v>18</v>
-      </c>
-      <c r="L84" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M84" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N84" t="s">
-        <v>18</v>
-      </c>
-      <c r="O84" t="s">
+      <c r="M84" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P84" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>18</v>
+      </c>
+      <c r="R84" t="s">
         <v>15</v>
       </c>
-      <c r="P84" t="s">
+      <c r="S84" t="s">
         <v>248</v>
       </c>
-      <c r="Q84" t="str">
-        <f t="shared" si="12"/>
+      <c r="T84" t="str">
+        <f t="shared" si="21"/>
         <v>The Force Awakens</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>250</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
       </c>
-      <c r="C85" t="str">
-        <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
-      <c r="D85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="3">
-        <f t="shared" si="8"/>
+      <c r="C85" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="E85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F85" s="5">
-        <f>RANK(E85, BMI)</f>
+      <c r="H85" s="5">
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="G85" s="3">
-        <f t="shared" si="9"/>
+      <c r="I85" s="3">
+        <f t="shared" si="17"/>
         <v>-33.330065679835307</v>
-      </c>
-      <c r="H85" t="s">
-        <v>33</v>
-      </c>
-      <c r="I85" t="s">
-        <v>34</v>
       </c>
       <c r="J85" t="s">
         <v>33</v>
       </c>
       <c r="K85" t="s">
-        <v>18</v>
-      </c>
-      <c r="L85" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M85" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N85" t="s">
-        <v>18</v>
-      </c>
-      <c r="O85" t="s">
+        <v>34</v>
+      </c>
+      <c r="L85" t="s">
+        <v>33</v>
+      </c>
+      <c r="M85" t="s">
+        <v>18</v>
+      </c>
+      <c r="N85" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P85" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>18</v>
+      </c>
+      <c r="R85" t="s">
         <v>15</v>
       </c>
-      <c r="P85" t="s">
+      <c r="S85" t="s">
         <v>248</v>
       </c>
-      <c r="Q85" t="str">
-        <f t="shared" si="12"/>
+      <c r="T85" t="str">
+        <f t="shared" si="21"/>
         <v>The Force Awakens</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>251</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
       </c>
-      <c r="C86" t="str">
-        <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
-      <c r="D86" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="3">
-        <f t="shared" si="8"/>
+      <c r="C86" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F86" s="5">
-        <f>RANK(E86, BMI)</f>
+      <c r="H86" s="5">
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="G86" s="3">
-        <f t="shared" si="9"/>
+      <c r="I86" s="3">
+        <f t="shared" si="17"/>
         <v>-33.330065679835307</v>
       </c>
-      <c r="H86" t="s">
+      <c r="J86" t="s">
         <v>29</v>
       </c>
-      <c r="I86" t="s">
+      <c r="K86" t="s">
         <v>29</v>
       </c>
-      <c r="J86" t="s">
+      <c r="L86" t="s">
         <v>45</v>
       </c>
-      <c r="K86" t="s">
-        <v>18</v>
-      </c>
-      <c r="L86" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M86" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N86" t="s">
-        <v>18</v>
-      </c>
-      <c r="O86" t="s">
+      <c r="M86" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P86" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>18</v>
+      </c>
+      <c r="R86" t="s">
         <v>21</v>
       </c>
-      <c r="P86" t="s">
+      <c r="S86" t="s">
         <v>248</v>
       </c>
-      <c r="Q86" t="str">
-        <f t="shared" si="12"/>
+      <c r="T86" t="str">
+        <f t="shared" si="21"/>
         <v>The Force Awakens</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>252</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
       </c>
-      <c r="C87" t="str">
-        <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
-      <c r="D87" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="3">
-        <f t="shared" si="8"/>
+      <c r="C87" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F87" s="5">
-        <f>RANK(E87, BMI)</f>
+      <c r="H87" s="5">
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="G87" s="3">
-        <f t="shared" si="9"/>
+      <c r="I87" s="3">
+        <f t="shared" si="17"/>
         <v>-33.330065679835307</v>
-      </c>
-      <c r="H87" t="s">
-        <v>57</v>
-      </c>
-      <c r="I87" t="s">
-        <v>57</v>
       </c>
       <c r="J87" t="s">
         <v>57</v>
       </c>
       <c r="K87" t="s">
-        <v>18</v>
-      </c>
-      <c r="L87" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="M87" s="6" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="N87" t="s">
-        <v>18</v>
-      </c>
-      <c r="O87" t="s">
-        <v>18</v>
-      </c>
-      <c r="P87" t="s">
+        <v>57</v>
+      </c>
+      <c r="L87" t="s">
+        <v>57</v>
+      </c>
+      <c r="M87" t="s">
+        <v>18</v>
+      </c>
+      <c r="N87" t="b">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="P87" s="6" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>18</v>
+      </c>
+      <c r="R87" t="s">
+        <v>18</v>
+      </c>
+      <c r="S87" t="s">
         <v>248</v>
       </c>
-      <c r="Q87" t="str">
-        <f t="shared" si="12"/>
+      <c r="T87" t="str">
+        <f t="shared" si="21"/>
         <v>The Force Awakens</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -6974,60 +8027,72 @@
         <v>165</v>
       </c>
       <c r="C88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
+        <v>64.5</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="14"/>
         <v>1.65</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>45</v>
       </c>
-      <c r="E88" s="3">
-        <f t="shared" si="8"/>
+      <c r="F88">
+        <f t="shared" si="15"/>
+        <v>99</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" si="16"/>
         <v>16.528925619834713</v>
       </c>
-      <c r="F88" s="5">
-        <f>RANK(E88, BMI)</f>
+      <c r="H88" s="5">
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
-      <c r="G88" s="3">
-        <f t="shared" si="9"/>
+      <c r="I88" s="3">
+        <f t="shared" si="17"/>
         <v>-16.801140060000595</v>
-      </c>
-      <c r="H88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I88" t="s">
-        <v>34</v>
       </c>
       <c r="J88" t="s">
         <v>33</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="s">
+        <v>34</v>
+      </c>
+      <c r="L88" t="s">
+        <v>33</v>
+      </c>
+      <c r="M88">
         <v>46</v>
       </c>
-      <c r="L88">
-        <f t="shared" si="10"/>
+      <c r="N88" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="19"/>
         <v>16790</v>
       </c>
-      <c r="M88" s="6">
-        <f t="shared" ca="1" si="11"/>
+      <c r="P88" s="6">
+        <f t="shared" ca="1" si="20"/>
         <v>29245</v>
       </c>
-      <c r="N88" t="s">
+      <c r="Q88" t="s">
         <v>26</v>
       </c>
-      <c r="O88" t="s">
+      <c r="R88" t="s">
         <v>15</v>
       </c>
-      <c r="P88" t="s">
+      <c r="S88" t="s">
         <v>51</v>
       </c>
-      <c r="Q88" t="str">
-        <f t="shared" si="12"/>
+      <c r="T88" t="str">
+        <f t="shared" si="21"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J96" s="6"/>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L96" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7207,7 +8272,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="str">
-        <f>_xlfn.XLOOKUP(27, starwars!K2:K88, starwars!A2:A88, "NA", 1)</f>
+        <f>_xlfn.XLOOKUP(27, starwars!M2:M88, starwars!A2:A88, "NA", 1)</f>
         <v>Han Solo</v>
       </c>
     </row>

--- a/E1_starwars.xlsx
+++ b/E1_starwars.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EpicWork\workspace\excel\individual-projects\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F0FA49-477A-4F9E-AF3B-CB40F0BA72CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F39B5-336F-460D-AA6E-271628DFACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="4365" windowWidth="19905" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="60" windowWidth="19905" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="starwars" sheetId="1" r:id="rId1"/>
-    <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
-    <sheet name="Answers" sheetId="3" r:id="rId3"/>
+    <sheet name="height_filter" sheetId="4" r:id="rId2"/>
+    <sheet name="data_dictionary" sheetId="2" r:id="rId3"/>
+    <sheet name="Answers" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">starwars!$D$1:$D$96</definedName>
     <definedName name="BMI">starwars!$G$2:$G$88</definedName>
+    <definedName name="height_data">height_filter!$C$2:$C$82</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="295">
   <si>
     <t>name</t>
   </si>
@@ -881,12 +906,57 @@
   </si>
   <si>
     <t>weight(lbs)</t>
+  </si>
+  <si>
+    <t>Mean height:</t>
+  </si>
+  <si>
+    <t>Mode height:</t>
+  </si>
+  <si>
+    <t>height_order</t>
+  </si>
+  <si>
+    <t>Midpoint:</t>
+  </si>
+  <si>
+    <t>Median height:</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>diff_mean</t>
+  </si>
+  <si>
+    <t>diff_mean_sqd</t>
+  </si>
+  <si>
+    <t>Variance:</t>
+  </si>
+  <si>
+    <t>Standard Deviation:</t>
+  </si>
+  <si>
+    <t>90th Percentile:</t>
+  </si>
+  <si>
+    <t>25th Percentile:</t>
+  </si>
+  <si>
+    <t>Rank:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1381,7 +1451,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1389,6 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1434,7 +1505,38 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1746,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F88"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1985,7 @@
       </c>
       <c r="P2" s="6">
         <f ca="1">IF(O2="NA", "NA", TODAY()-O2)</f>
-        <v>39100</v>
+        <v>39101</v>
       </c>
       <c r="Q2" t="s">
         <v>14</v>
@@ -1955,7 +2057,7 @@
       </c>
       <c r="P3" s="6">
         <f t="shared" ref="P3:P66" ca="1" si="9">IF(O3="NA", "NA", TODAY()-O3)</f>
-        <v>5155</v>
+        <v>5156</v>
       </c>
       <c r="Q3" t="s">
         <v>14</v>
@@ -2027,7 +2129,7 @@
       </c>
       <c r="P4" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>33990</v>
+        <v>33991</v>
       </c>
       <c r="Q4" t="s">
         <v>26</v>
@@ -2099,7 +2201,7 @@
       </c>
       <c r="P5" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>30741.5</v>
+        <v>30742.5</v>
       </c>
       <c r="Q5" t="s">
         <v>14</v>
@@ -2171,7 +2273,7 @@
       </c>
       <c r="P6" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>39100</v>
+        <v>39101</v>
       </c>
       <c r="Q6" t="s">
         <v>35</v>
@@ -2243,7 +2345,7 @@
       </c>
       <c r="P7" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>27055</v>
+        <v>27056</v>
       </c>
       <c r="Q7" t="s">
         <v>14</v>
@@ -2315,7 +2417,7 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>28880</v>
+        <v>28881</v>
       </c>
       <c r="Q8" t="s">
         <v>14</v>
@@ -2459,7 +2561,7 @@
       </c>
       <c r="P10" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>37275</v>
+        <v>37276</v>
       </c>
       <c r="Q10" t="s">
         <v>14</v>
@@ -2531,7 +2633,7 @@
       </c>
       <c r="P11" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>25230</v>
+        <v>25231</v>
       </c>
       <c r="Q11" t="s">
         <v>49</v>
@@ -2603,7 +2705,7 @@
       </c>
       <c r="P12" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>30741.5</v>
+        <v>30742.5</v>
       </c>
       <c r="Q12" t="s">
         <v>14</v>
@@ -2675,7 +2777,7 @@
       </c>
       <c r="P13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>22675</v>
+        <v>22676</v>
       </c>
       <c r="Q13" t="s">
         <v>54</v>
@@ -2747,7 +2849,7 @@
       </c>
       <c r="P14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>-26965</v>
+        <v>-26964</v>
       </c>
       <c r="Q14" t="s">
         <v>58</v>
@@ -2819,7 +2921,7 @@
       </c>
       <c r="P15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>35450</v>
+        <v>35451</v>
       </c>
       <c r="Q15" t="s">
         <v>61</v>
@@ -2891,7 +2993,7 @@
       </c>
       <c r="P16" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>29975</v>
+        <v>29976</v>
       </c>
       <c r="Q16" t="s">
         <v>65</v>
@@ -2963,7 +3065,7 @@
       </c>
       <c r="P17" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>-172965</v>
+        <v>-172964</v>
       </c>
       <c r="Q17" t="s">
         <v>70</v>
@@ -3035,7 +3137,7 @@
       </c>
       <c r="P18" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>38370</v>
+        <v>38371</v>
       </c>
       <c r="Q18" t="s">
         <v>61</v>
@@ -3179,7 +3281,7 @@
       </c>
       <c r="P20" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>-281005</v>
+        <v>-281004</v>
       </c>
       <c r="Q20" t="s">
         <v>18</v>
@@ -3251,7 +3353,7 @@
       </c>
       <c r="P21" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>16105</v>
+        <v>16106</v>
       </c>
       <c r="Q21" t="s">
         <v>26</v>
@@ -3323,7 +3425,7 @@
       </c>
       <c r="P22" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>34537.5</v>
+        <v>34538.5</v>
       </c>
       <c r="Q22" t="s">
         <v>86</v>
@@ -3395,7 +3497,7 @@
       </c>
       <c r="P23" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>40560</v>
+        <v>40561</v>
       </c>
       <c r="Q23" t="s">
         <v>18</v>
@@ -3467,7 +3569,7 @@
       </c>
       <c r="P24" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>26690</v>
+        <v>26691</v>
       </c>
       <c r="Q24" t="s">
         <v>92</v>
@@ -3539,7 +3641,7 @@
       </c>
       <c r="P25" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>34720</v>
+        <v>34721</v>
       </c>
       <c r="Q25" t="s">
         <v>96</v>
@@ -3611,7 +3713,7 @@
       </c>
       <c r="P26" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>32530</v>
+        <v>32531</v>
       </c>
       <c r="Q26" t="s">
         <v>99</v>
@@ -3683,7 +3785,7 @@
       </c>
       <c r="P27" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>31070</v>
+        <v>31071</v>
       </c>
       <c r="Q27" t="s">
         <v>102</v>
@@ -3755,7 +3857,7 @@
       </c>
       <c r="P28" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>28515</v>
+        <v>28516</v>
       </c>
       <c r="Q28" t="s">
         <v>107</v>
@@ -3899,7 +4001,7 @@
       </c>
       <c r="P30" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>43115</v>
+        <v>43116</v>
       </c>
       <c r="Q30" t="s">
         <v>111</v>
@@ -4043,7 +4145,7 @@
       </c>
       <c r="P32" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>12455</v>
+        <v>12456</v>
       </c>
       <c r="Q32" t="s">
         <v>18</v>
@@ -4187,7 +4289,7 @@
       </c>
       <c r="P34" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>12820</v>
+        <v>12821</v>
       </c>
       <c r="Q34" t="s">
         <v>123</v>
@@ -4259,7 +4361,7 @@
       </c>
       <c r="P35" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>27055</v>
+        <v>27056</v>
       </c>
       <c r="Q35" t="s">
         <v>26</v>
@@ -4691,7 +4793,7 @@
       </c>
       <c r="P41" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>23405</v>
+        <v>23406</v>
       </c>
       <c r="Q41" t="s">
         <v>26</v>
@@ -4763,7 +4865,7 @@
       </c>
       <c r="P42" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>19755</v>
+        <v>19756</v>
       </c>
       <c r="Q42" t="s">
         <v>14</v>
@@ -4835,7 +4937,7 @@
       </c>
       <c r="P43" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>26325</v>
+        <v>26326</v>
       </c>
       <c r="Q43" t="s">
         <v>142</v>
@@ -4979,7 +5081,7 @@
       </c>
       <c r="P45" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>28515</v>
+        <v>28516</v>
       </c>
       <c r="Q45" t="s">
         <v>146</v>
@@ -5267,7 +5369,7 @@
       </c>
       <c r="P49" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>19755</v>
+        <v>19756</v>
       </c>
       <c r="Q49" t="s">
         <v>161</v>
@@ -5339,7 +5441,7 @@
       </c>
       <c r="P50" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>12455</v>
+        <v>12456</v>
       </c>
       <c r="Q50" t="s">
         <v>163</v>
@@ -5771,7 +5873,7 @@
       </c>
       <c r="P56" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>38005</v>
+        <v>38006</v>
       </c>
       <c r="Q56" t="s">
         <v>180</v>
@@ -6059,7 +6161,7 @@
       </c>
       <c r="P60" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>16105</v>
+        <v>16106</v>
       </c>
       <c r="Q60" t="s">
         <v>14</v>
@@ -6203,7 +6305,7 @@
       </c>
       <c r="P62" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>24865</v>
+        <v>24866</v>
       </c>
       <c r="Q62" t="s">
         <v>194</v>
@@ -6275,7 +6377,7 @@
       </c>
       <c r="P63" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>31435</v>
+        <v>31436</v>
       </c>
       <c r="Q63" t="s">
         <v>194</v>
@@ -6419,7 +6521,7 @@
       </c>
       <c r="P65" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>8805</v>
+        <v>8806</v>
       </c>
       <c r="Q65" t="s">
         <v>199</v>
@@ -6462,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" ref="H66:H97" si="12">RANK(G66, BMI)</f>
+        <f t="shared" ref="H66:H88" si="12">RANK(G66, BMI)</f>
         <v>60</v>
       </c>
       <c r="I66" s="3">
@@ -6491,7 +6593,7 @@
       </c>
       <c r="P66" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>21580</v>
+        <v>21581</v>
       </c>
       <c r="Q66" t="s">
         <v>35</v>
@@ -6563,7 +6665,7 @@
       </c>
       <c r="P67" s="6">
         <f t="shared" ref="P67:P88" ca="1" si="20">IF(O67="NA", "NA", TODAY()-O67)</f>
-        <v>21945</v>
+        <v>21946</v>
       </c>
       <c r="Q67" t="s">
         <v>203</v>
@@ -8075,7 +8177,7 @@
       </c>
       <c r="P88" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>29245</v>
+        <v>29246</v>
       </c>
       <c r="Q88" t="s">
         <v>26</v>
@@ -8100,6 +8202,1714 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E919E3-E024-4A3D-8E89-7053258A8778}">
+  <dimension ref="A1:J82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:C82">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(starwars!A2:B88,ISNUMBER(starwars!B2:B88)),2)</f>
+        <v>Yoda</v>
+      </c>
+      <c r="C2">
+        <v>66</v>
+      </c>
+      <c r="D2" s="7">
+        <f>$H$12-$C2</f>
+        <v>108.35802469135803</v>
+      </c>
+      <c r="E2" s="7">
+        <f>$D2^2</f>
+        <v>11741.461515012956</v>
+      </c>
+      <c r="G2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Ratts Tyerell</v>
+      </c>
+      <c r="C3">
+        <v>79</v>
+      </c>
+      <c r="D3" s="7">
+        <f>$H$12-$C3</f>
+        <v>95.358024691358025</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E66" si="0">$D3^2</f>
+        <v>9093.1528730376467</v>
+      </c>
+      <c r="G3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3">
+        <f>SUM(height_data)/COUNT(height_data)</f>
+        <v>174.35802469135803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Wicket Systri Warrick</v>
+      </c>
+      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4" s="7">
+        <f>$H$12-$C4</f>
+        <v>86.358024691358025</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>7457.7084285932024</v>
+      </c>
+      <c r="G4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4">
+        <f>(VLOOKUP(40, A2:C82, 3, FALSE) + VLOOKUP(41, A2:C82, 3, FALSE))/2</f>
+        <v>180</v>
+      </c>
+      <c r="I4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4">
+        <f>COUNT(height_data)/2</f>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Dud Bolt</v>
+      </c>
+      <c r="C5">
+        <v>94</v>
+      </c>
+      <c r="D5" s="7">
+        <f>$H$12-$C5</f>
+        <v>80.358024691358025</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>6457.4121322969058</v>
+      </c>
+      <c r="G5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>R2-D2</v>
+      </c>
+      <c r="C6">
+        <v>96</v>
+      </c>
+      <c r="D6" s="7">
+        <f>$H$12-$C6</f>
+        <v>78.358024691358025</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>6139.980033531474</v>
+      </c>
+      <c r="G6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" s="7">
+        <f>AVERAGE(E2:E82)</f>
+        <v>1194.0570035055634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>R4-P17</v>
+      </c>
+      <c r="C7">
+        <v>96</v>
+      </c>
+      <c r="D7" s="7">
+        <f>$H$12-$C7</f>
+        <v>78.358024691358025</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>6139.980033531474</v>
+      </c>
+      <c r="G7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7">
+        <f>SQRT(H6)</f>
+        <v>34.555129915912104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>R5-D4</v>
+      </c>
+      <c r="C8">
+        <v>97</v>
+      </c>
+      <c r="D8" s="7">
+        <f>$H$12-$C8</f>
+        <v>77.358024691358025</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>5984.263984148758</v>
+      </c>
+      <c r="G8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP($J8, $A$2:$C$82, 3, FALSE)</f>
+        <v>206</v>
+      </c>
+      <c r="I8" t="s">
+        <v>294</v>
+      </c>
+      <c r="J8">
+        <f>_xlfn.CEILING.MATH(COUNT(height_data)*0.9)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Sebulba</v>
+      </c>
+      <c r="C9">
+        <v>112</v>
+      </c>
+      <c r="D9" s="7">
+        <f>$H$12-$C9</f>
+        <v>62.358024691358025</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>3888.5232434080172</v>
+      </c>
+      <c r="G9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H9">
+        <f>VLOOKUP($J9, $A$2:$C$82, 3, FALSE)</f>
+        <v>167</v>
+      </c>
+      <c r="I9" t="s">
+        <v>294</v>
+      </c>
+      <c r="J9">
+        <f>_xlfn.CEILING.MATH(COUNT(height_data)*0.25)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Gasgano</v>
+      </c>
+      <c r="C10">
+        <v>122</v>
+      </c>
+      <c r="D10" s="7">
+        <f>$H$12-$C10</f>
+        <v>52.358024691358025</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>2741.3627495808569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Watto</v>
+      </c>
+      <c r="C11">
+        <v>137</v>
+      </c>
+      <c r="D11" s="7">
+        <f>$H$12-$C11</f>
+        <v>37.358024691358025</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>1395.622008840116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Leia Organa</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12" s="7">
+        <f>$H$12-$C12</f>
+        <v>24.358024691358025</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>593.31336686480722</v>
+      </c>
+      <c r="G12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H12" s="7">
+        <f>AVERAGE(height_data)</f>
+        <v>174.35802469135803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Mon Mothma</v>
+      </c>
+      <c r="C13">
+        <v>150</v>
+      </c>
+      <c r="D13" s="7">
+        <f>$H$12-$C13</f>
+        <v>24.358024691358025</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>593.31336686480722</v>
+      </c>
+      <c r="G13" t="s">
+        <v>285</v>
+      </c>
+      <c r="H13">
+        <f>MEDIAN(height_data)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Cordé</v>
+      </c>
+      <c r="C14">
+        <v>157</v>
+      </c>
+      <c r="D14" s="7">
+        <f>$H$12-$C14</f>
+        <v>17.358024691358025</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>301.30102118579487</v>
+      </c>
+      <c r="G14" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14">
+        <f>_xlfn.MODE.SNGL(height_data)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Nien Nunb</v>
+      </c>
+      <c r="C15">
+        <v>160</v>
+      </c>
+      <c r="D15" s="7">
+        <f>$H$12-$C15</f>
+        <v>14.358024691358025</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>206.15287303764671</v>
+      </c>
+      <c r="G15" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15">
+        <f>_xlfn.VAR.P(height_data)</f>
+        <v>1194.0570035055632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Shmi Skywalker</v>
+      </c>
+      <c r="C16">
+        <v>163</v>
+      </c>
+      <c r="D16" s="7">
+        <f>$H$12-$C16</f>
+        <v>11.358024691358025</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>129.00472488949856</v>
+      </c>
+      <c r="G16" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16">
+        <f>_xlfn.STDEV.P(height_data)</f>
+        <v>34.555129915912097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Ben Quadinaros</v>
+      </c>
+      <c r="C17">
+        <v>163</v>
+      </c>
+      <c r="D17" s="7">
+        <f>$H$12-$C17</f>
+        <v>11.358024691358025</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>129.00472488949856</v>
+      </c>
+      <c r="G17" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17">
+        <f>_xlfn.PERCENTILE.INC(height_data, 0.9)</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Beru Whitesun lars</v>
+      </c>
+      <c r="C18">
+        <v>165</v>
+      </c>
+      <c r="D18" s="7">
+        <f>$H$12-$C18</f>
+        <v>9.3580246913580254</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>87.57262612406646</v>
+      </c>
+      <c r="G18" t="s">
+        <v>293</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.QUARTILE.INC(height_data, 1)</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Dormé</v>
+      </c>
+      <c r="C19">
+        <v>165</v>
+      </c>
+      <c r="D19" s="7">
+        <f>$H$12-$C19</f>
+        <v>9.3580246913580254</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>87.57262612406646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Padmé Amidala</v>
+      </c>
+      <c r="C20">
+        <v>165</v>
+      </c>
+      <c r="D20" s="7">
+        <f>$H$12-$C20</f>
+        <v>9.3580246913580254</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>87.57262612406646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Barriss Offee</v>
+      </c>
+      <c r="C21">
+        <v>166</v>
+      </c>
+      <c r="D21" s="7">
+        <f>$H$12-$C21</f>
+        <v>8.3580246913580254</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>69.856576741350409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>C-3PO</v>
+      </c>
+      <c r="C22">
+        <v>167</v>
+      </c>
+      <c r="D22" s="7">
+        <f>$H$12-$C22</f>
+        <v>7.3580246913580254</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>54.140527358634365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Jocasta Nu</v>
+      </c>
+      <c r="C23">
+        <v>167</v>
+      </c>
+      <c r="D23" s="7">
+        <f>$H$12-$C23</f>
+        <v>7.3580246913580254</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>54.140527358634365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Zam Wesell</v>
+      </c>
+      <c r="C24">
+        <v>168</v>
+      </c>
+      <c r="D24" s="7">
+        <f>$H$12-$C24</f>
+        <v>6.3580246913580254</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>40.424477975918315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Wedge Antilles</v>
+      </c>
+      <c r="C25">
+        <v>170</v>
+      </c>
+      <c r="D25" s="7">
+        <f>$H$12-$C25</f>
+        <v>4.3580246913580254</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>18.992379210486213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Palpatine</v>
+      </c>
+      <c r="C26">
+        <v>170</v>
+      </c>
+      <c r="D26" s="7">
+        <f>$H$12-$C26</f>
+        <v>4.3580246913580254</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>18.992379210486213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Finis Valorum</v>
+      </c>
+      <c r="C27">
+        <v>170</v>
+      </c>
+      <c r="D27" s="7">
+        <f>$H$12-$C27</f>
+        <v>4.3580246913580254</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>18.992379210486213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Luminara Unduli</v>
+      </c>
+      <c r="C28">
+        <v>170</v>
+      </c>
+      <c r="D28" s="7">
+        <f>$H$12-$C28</f>
+        <v>4.3580246913580254</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>18.992379210486213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Eeth Koth</v>
+      </c>
+      <c r="C29">
+        <v>171</v>
+      </c>
+      <c r="D29" s="7">
+        <f>$H$12-$C29</f>
+        <v>3.3580246913580254</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>11.276329827770162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Luke Skywalker</v>
+      </c>
+      <c r="C30">
+        <v>172</v>
+      </c>
+      <c r="D30" s="7">
+        <f>$H$12-$C30</f>
+        <v>2.3580246913580254</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>5.5602804450541106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Greedo</v>
+      </c>
+      <c r="C31">
+        <v>173</v>
+      </c>
+      <c r="D31" s="7">
+        <f>$H$12-$C31</f>
+        <v>1.3580246913580254</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8442310623380602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Jabba Desilijic Tiure</v>
+      </c>
+      <c r="C32">
+        <v>175</v>
+      </c>
+      <c r="D32" s="7">
+        <f>$H$12-$C32</f>
+        <v>-0.64197530864197461</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>0.41213229690595854</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Lobot</v>
+      </c>
+      <c r="C33">
+        <v>175</v>
+      </c>
+      <c r="D33" s="7">
+        <f>$H$12-$C33</f>
+        <v>-0.64197530864197461</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>0.41213229690595854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Darth Maul</v>
+      </c>
+      <c r="C34">
+        <v>175</v>
+      </c>
+      <c r="D34" s="7">
+        <f>$H$12-$C34</f>
+        <v>-0.64197530864197461</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>0.41213229690595854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Lando Calrissian</v>
+      </c>
+      <c r="C35">
+        <v>177</v>
+      </c>
+      <c r="D35" s="7">
+        <f>$H$12-$C35</f>
+        <v>-2.6419753086419746</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="0"/>
+        <v>6.9800335314738566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Owen Lars</v>
+      </c>
+      <c r="C36">
+        <v>178</v>
+      </c>
+      <c r="D36" s="7">
+        <f>$H$12-$C36</f>
+        <v>-3.6419753086419746</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="0"/>
+        <v>13.263984148757807</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Ayla Secura</v>
+      </c>
+      <c r="C37">
+        <v>178</v>
+      </c>
+      <c r="D37" s="7">
+        <f>$H$12-$C37</f>
+        <v>-3.6419753086419746</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="0"/>
+        <v>13.263984148757807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Shaak Ti</v>
+      </c>
+      <c r="C38">
+        <v>178</v>
+      </c>
+      <c r="D38" s="7">
+        <f>$H$12-$C38</f>
+        <v>-3.6419753086419746</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="0"/>
+        <v>13.263984148757807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Sly Moore</v>
+      </c>
+      <c r="C39">
+        <v>178</v>
+      </c>
+      <c r="D39" s="7">
+        <f>$H$12-$C39</f>
+        <v>-3.6419753086419746</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="0"/>
+        <v>13.263984148757807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Wilhuff Tarkin</v>
+      </c>
+      <c r="C40">
+        <v>180</v>
+      </c>
+      <c r="D40" s="7">
+        <f>$H$12-$C40</f>
+        <v>-5.6419753086419746</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="0"/>
+        <v>31.831885383325705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Han Solo</v>
+      </c>
+      <c r="C41">
+        <v>180</v>
+      </c>
+      <c r="D41" s="7">
+        <f>$H$12-$C41</f>
+        <v>-5.6419753086419746</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="0"/>
+        <v>31.831885383325705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Jek Tono Porkins</v>
+      </c>
+      <c r="C42">
+        <v>180</v>
+      </c>
+      <c r="D42" s="7">
+        <f>$H$12-$C42</f>
+        <v>-5.6419753086419746</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="0"/>
+        <v>31.831885383325705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Ackbar</v>
+      </c>
+      <c r="C43">
+        <v>180</v>
+      </c>
+      <c r="D43" s="7">
+        <f>$H$12-$C43</f>
+        <v>-5.6419753086419746</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="0"/>
+        <v>31.831885383325705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Bib Fortuna</v>
+      </c>
+      <c r="C44">
+        <v>180</v>
+      </c>
+      <c r="D44" s="7">
+        <f>$H$12-$C44</f>
+        <v>-5.6419753086419746</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="0"/>
+        <v>31.831885383325705</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Obi-Wan Kenobi</v>
+      </c>
+      <c r="C45">
+        <v>182</v>
+      </c>
+      <c r="D45" s="7">
+        <f>$H$12-$C45</f>
+        <v>-7.6419753086419746</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="0"/>
+        <v>58.399786617893604</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Biggs Darklighter</v>
+      </c>
+      <c r="C46">
+        <v>183</v>
+      </c>
+      <c r="D46" s="7">
+        <f>$H$12-$C46</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="0"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Boba Fett</v>
+      </c>
+      <c r="C47">
+        <v>183</v>
+      </c>
+      <c r="D47" s="7">
+        <f>$H$12-$C47</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="0"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Ric Olié</v>
+      </c>
+      <c r="C48">
+        <v>183</v>
+      </c>
+      <c r="D48" s="7">
+        <f>$H$12-$C48</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="0"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Quarsh Panaka</v>
+      </c>
+      <c r="C49">
+        <v>183</v>
+      </c>
+      <c r="D49" s="7">
+        <f>$H$12-$C49</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="0"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Cliegg Lars</v>
+      </c>
+      <c r="C50">
+        <v>183</v>
+      </c>
+      <c r="D50" s="7">
+        <f>$H$12-$C50</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="0"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Poggle the Lesser</v>
+      </c>
+      <c r="C51">
+        <v>183</v>
+      </c>
+      <c r="D51" s="7">
+        <f>$H$12-$C51</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="0"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Jango Fett</v>
+      </c>
+      <c r="C52">
+        <v>183</v>
+      </c>
+      <c r="D52" s="7">
+        <f>$H$12-$C52</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="0"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Adi Gallia</v>
+      </c>
+      <c r="C53">
+        <v>184</v>
+      </c>
+      <c r="D53" s="7">
+        <f>$H$12-$C53</f>
+        <v>-9.6419753086419746</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" si="0"/>
+        <v>92.967687852461495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Gregar Typho</v>
+      </c>
+      <c r="C54">
+        <v>185</v>
+      </c>
+      <c r="D54" s="7">
+        <f>$H$12-$C54</f>
+        <v>-10.641975308641975</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="0"/>
+        <v>113.25163846974544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Anakin Skywalker</v>
+      </c>
+      <c r="C55">
+        <v>188</v>
+      </c>
+      <c r="D55" s="7">
+        <f>$H$12-$C55</f>
+        <v>-13.641975308641975</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="0"/>
+        <v>186.10349032159729</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Mace Windu</v>
+      </c>
+      <c r="C56">
+        <v>188</v>
+      </c>
+      <c r="D56" s="7">
+        <f>$H$12-$C56</f>
+        <v>-13.641975308641975</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="0"/>
+        <v>186.10349032159729</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Saesee Tiin</v>
+      </c>
+      <c r="C57">
+        <v>188</v>
+      </c>
+      <c r="D57" s="7">
+        <f>$H$12-$C57</f>
+        <v>-13.641975308641975</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="0"/>
+        <v>186.10349032159729</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Plo Koon</v>
+      </c>
+      <c r="C58">
+        <v>188</v>
+      </c>
+      <c r="D58" s="7">
+        <f>$H$12-$C58</f>
+        <v>-13.641975308641975</v>
+      </c>
+      <c r="E58" s="7">
+        <f t="shared" si="0"/>
+        <v>186.10349032159729</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Raymus Antilles</v>
+      </c>
+      <c r="C59">
+        <v>188</v>
+      </c>
+      <c r="D59" s="7">
+        <f>$H$12-$C59</f>
+        <v>-13.641975308641975</v>
+      </c>
+      <c r="E59" s="7">
+        <f t="shared" si="0"/>
+        <v>186.10349032159729</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Bossk</v>
+      </c>
+      <c r="C60">
+        <v>190</v>
+      </c>
+      <c r="D60" s="7">
+        <f>$H$12-$C60</f>
+        <v>-15.641975308641975</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" si="0"/>
+        <v>244.67139155616519</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Nute Gunray</v>
+      </c>
+      <c r="C61">
+        <v>191</v>
+      </c>
+      <c r="D61" s="7">
+        <f>$H$12-$C61</f>
+        <v>-16.641975308641975</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" si="0"/>
+        <v>276.95534217344914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Bail Prestor Organa</v>
+      </c>
+      <c r="C62">
+        <v>191</v>
+      </c>
+      <c r="D62" s="7">
+        <f>$H$12-$C62</f>
+        <v>-16.641975308641975</v>
+      </c>
+      <c r="E62" s="7">
+        <f t="shared" si="0"/>
+        <v>276.95534217344914</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="str">
+        <v>San Hill</v>
+      </c>
+      <c r="C63">
+        <v>191</v>
+      </c>
+      <c r="D63" s="7">
+        <f>$H$12-$C63</f>
+        <v>-16.641975308641975</v>
+      </c>
+      <c r="E63" s="7">
+        <f t="shared" si="0"/>
+        <v>276.95534217344914</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Qui-Gon Jinn</v>
+      </c>
+      <c r="C64">
+        <v>193</v>
+      </c>
+      <c r="D64" s="7">
+        <f>$H$12-$C64</f>
+        <v>-18.641975308641975</v>
+      </c>
+      <c r="E64" s="7">
+        <f t="shared" si="0"/>
+        <v>347.52324340801704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Dooku</v>
+      </c>
+      <c r="C65">
+        <v>193</v>
+      </c>
+      <c r="D65" s="7">
+        <f>$H$12-$C65</f>
+        <v>-18.641975308641975</v>
+      </c>
+      <c r="E65" s="7">
+        <f t="shared" si="0"/>
+        <v>347.52324340801704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Wat Tambor</v>
+      </c>
+      <c r="C66">
+        <v>193</v>
+      </c>
+      <c r="D66" s="7">
+        <f>$H$12-$C66</f>
+        <v>-18.641975308641975</v>
+      </c>
+      <c r="E66" s="7">
+        <f t="shared" si="0"/>
+        <v>347.52324340801704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Jar Jar Binks</v>
+      </c>
+      <c r="C67">
+        <v>196</v>
+      </c>
+      <c r="D67" s="7">
+        <f>$H$12-$C67</f>
+        <v>-21.641975308641975</v>
+      </c>
+      <c r="E67" s="7">
+        <f t="shared" ref="E67:E82" si="1">$D67^2</f>
+        <v>468.37509525986889</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Kit Fisto</v>
+      </c>
+      <c r="C68">
+        <v>196</v>
+      </c>
+      <c r="D68" s="7">
+        <f>$H$12-$C68</f>
+        <v>-21.641975308641975</v>
+      </c>
+      <c r="E68" s="7">
+        <f t="shared" si="1"/>
+        <v>468.37509525986889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Mas Amedda</v>
+      </c>
+      <c r="C69">
+        <v>196</v>
+      </c>
+      <c r="D69" s="7">
+        <f>$H$12-$C69</f>
+        <v>-21.641975308641975</v>
+      </c>
+      <c r="E69" s="7">
+        <f t="shared" si="1"/>
+        <v>468.37509525986889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Ki-Adi-Mundi</v>
+      </c>
+      <c r="C70">
+        <v>198</v>
+      </c>
+      <c r="D70" s="7">
+        <f>$H$12-$C70</f>
+        <v>-23.641975308641975</v>
+      </c>
+      <c r="E70" s="7">
+        <f t="shared" si="1"/>
+        <v>558.94299649443678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Dexter Jettster</v>
+      </c>
+      <c r="C71">
+        <v>198</v>
+      </c>
+      <c r="D71" s="7">
+        <f>$H$12-$C71</f>
+        <v>-23.641975308641975</v>
+      </c>
+      <c r="E71" s="7">
+        <f t="shared" si="1"/>
+        <v>558.94299649443678</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="str">
+        <v>IG-88</v>
+      </c>
+      <c r="C72">
+        <v>200</v>
+      </c>
+      <c r="D72" s="7">
+        <f>$H$12-$C72</f>
+        <v>-25.641975308641975</v>
+      </c>
+      <c r="E72" s="7">
+        <f t="shared" si="1"/>
+        <v>657.51089772900468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Darth Vader</v>
+      </c>
+      <c r="C73">
+        <v>202</v>
+      </c>
+      <c r="D73" s="7">
+        <f>$H$12-$C73</f>
+        <v>-27.641975308641975</v>
+      </c>
+      <c r="E73" s="7">
+        <f t="shared" si="1"/>
+        <v>764.07879896357258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Rugor Nass</v>
+      </c>
+      <c r="C74">
+        <v>206</v>
+      </c>
+      <c r="D74" s="7">
+        <f>$H$12-$C74</f>
+        <v>-31.641975308641975</v>
+      </c>
+      <c r="E74" s="7">
+        <f t="shared" si="1"/>
+        <v>1001.2146014327084</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Tion Medon</v>
+      </c>
+      <c r="C75">
+        <v>206</v>
+      </c>
+      <c r="D75" s="7">
+        <f>$H$12-$C75</f>
+        <v>-31.641975308641975</v>
+      </c>
+      <c r="E75" s="7">
+        <f t="shared" si="1"/>
+        <v>1001.2146014327084</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Taun We</v>
+      </c>
+      <c r="C76">
+        <v>213</v>
+      </c>
+      <c r="D76" s="7">
+        <f>$H$12-$C76</f>
+        <v>-38.641975308641975</v>
+      </c>
+      <c r="E76" s="7">
+        <f t="shared" si="1"/>
+        <v>1493.2022557536961</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Grievous</v>
+      </c>
+      <c r="C77">
+        <v>216</v>
+      </c>
+      <c r="D77" s="7">
+        <f>$H$12-$C77</f>
+        <v>-41.641975308641975</v>
+      </c>
+      <c r="E77" s="7">
+        <f t="shared" si="1"/>
+        <v>1734.0541076055479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Roos Tarpals</v>
+      </c>
+      <c r="C78">
+        <v>224</v>
+      </c>
+      <c r="D78" s="7">
+        <f>$H$12-$C78</f>
+        <v>-49.641975308641975</v>
+      </c>
+      <c r="E78" s="7">
+        <f t="shared" si="1"/>
+        <v>2464.3257125438195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Chewbacca</v>
+      </c>
+      <c r="C79">
+        <v>228</v>
+      </c>
+      <c r="D79" s="7">
+        <f>$H$12-$C79</f>
+        <v>-53.641975308641975</v>
+      </c>
+      <c r="E79" s="7">
+        <f t="shared" si="1"/>
+        <v>2877.4615150129553</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Lama Su</v>
+      </c>
+      <c r="C80">
+        <v>229</v>
+      </c>
+      <c r="D80" s="7">
+        <f>$H$12-$C80</f>
+        <v>-54.641975308641975</v>
+      </c>
+      <c r="E80" s="7">
+        <f t="shared" si="1"/>
+        <v>2985.7454656302393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Tarfful</v>
+      </c>
+      <c r="C81">
+        <v>234</v>
+      </c>
+      <c r="D81" s="7">
+        <f>$H$12-$C81</f>
+        <v>-59.641975308641975</v>
+      </c>
+      <c r="E81" s="7">
+        <f t="shared" si="1"/>
+        <v>3557.1652187166592</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Yarael Poof</v>
+      </c>
+      <c r="C82">
+        <v>264</v>
+      </c>
+      <c r="D82" s="7">
+        <f>$H$12-$C82</f>
+        <v>-89.641975308641975</v>
+      </c>
+      <c r="E82" s="7">
+        <f t="shared" si="1"/>
+        <v>8035.6837372351774</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C83:E1048576 C1:C82">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C9AD6C-192F-4898-AF47-D19C02D8C3A5}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -8198,7 +10008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3A0F5D-FDF8-4BF8-BD72-0610A843EBFA}">
   <dimension ref="A1:B10"/>
   <sheetViews>
